--- a/com.js.ens.leveller/ver3_변수정의.xlsx
+++ b/com.js.ens.leveller/ver3_변수정의.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="13005" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="13005"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="268">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -821,10 +821,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>%UpperEntryRollGapMovement%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>%UpperExitRollGapMovement%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -861,10 +857,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>%FrontHDRollVertical Pos%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>%RearHDRollDia%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -882,18 +874,6 @@
   </si>
   <si>
     <t>Lower Roll Information</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%UR_n_gap%
-%UR_n__friction%
-%UR_n_diameter%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%LR_n_gap%
-%LR_n__friction%
-%LR_n_diameter%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -909,10 +889,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>main_flat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>O</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -921,16 +897,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>00_define_parameters</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m1_flat</t>
-  </si>
-  <si>
-    <t>m1_a_flat</t>
-  </si>
-  <si>
     <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -944,6 +910,92 @@
   </si>
   <si>
     <t>파싱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mp01_define_post_set_flat.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main_flat.proc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_define_parameters.proc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m1_flat.proc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m1_a_flat.proc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a2_roll_gen.proc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a2_roll_gen_crown.proc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/1_Flat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a3_material_define.proc</t>
+  </si>
+  <si>
+    <t>mat05_mass_density.proc</t>
+  </si>
+  <si>
+    <t>a4_contact.proc</t>
+  </si>
+  <si>
+    <t>%UpperRollDataField%
+%UR_n_gap%
+%UR_n__friction%
+%UR_n_diameter%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%LowerRollDataField%
+%LR_n_gap%
+%LR_n__friction%
+%LR_n_diameter%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%UpperEntryRollGapMovement%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold Down Roll Generation Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDRollType</t>
+  </si>
+  <si>
+    <t>%HDRollType%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%FrontHDRollVerticalPos%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1233,7 +1285,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1276,7 +1328,91 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1294,85 +1430,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1679,10 +1737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I88"/>
+  <dimension ref="B2:I89"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54:G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1697,35 +1755,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="31"/>
-      <c r="C2" s="32"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="2" t="s">
         <v>122</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="G2" s="30"/>
+      <c r="G2" s="34"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="32"/>
       <c r="I3" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="34"/>
-      <c r="C4" s="33" t="s">
+      <c r="B4" s="38"/>
+      <c r="C4" s="37" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -1734,1226 +1792,1265 @@
       <c r="E4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="25"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="29"/>
       <c r="I4" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
       <c r="D5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="G5" s="25"/>
+      <c r="G5" s="29"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
       <c r="D6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="G6" s="25"/>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="34"/>
-      <c r="C7" s="35"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="G7" s="25"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="34"/>
-      <c r="C8" s="33" t="s">
+      <c r="B8" s="38"/>
+      <c r="C8" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="23"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
       <c r="D9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="G9" s="25"/>
+      <c r="G9" s="29"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
       <c r="D10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="G10" s="25"/>
+      <c r="G10" s="29"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="G11" s="25"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="34"/>
-      <c r="C12" s="35"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="G12" s="25"/>
+      <c r="G12" s="29"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="34"/>
-      <c r="C13" s="33" t="s">
+      <c r="B13" s="38"/>
+      <c r="C13" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="23"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="32"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
       <c r="D14" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="G14" s="25"/>
+      <c r="G14" s="29"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="34"/>
-      <c r="C15" s="35"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="39"/>
       <c r="D15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="G15" s="25"/>
+      <c r="G15" s="29"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="34"/>
-      <c r="C16" s="33" t="s">
+      <c r="B16" s="38"/>
+      <c r="C16" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="23"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="32"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="34"/>
-      <c r="C17" s="35"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="39"/>
       <c r="D17" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="G17" s="25"/>
+      <c r="G17" s="29"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="34"/>
-      <c r="C18" s="33" t="s">
+      <c r="B18" s="38"/>
+      <c r="C18" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="23"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="32"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
       <c r="D19" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="F19" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="G19" s="25"/>
+      <c r="G19" s="29"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="34"/>
-      <c r="C20" s="35"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="39"/>
       <c r="D20" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="F20" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="G20" s="25"/>
+      <c r="G20" s="29"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="34"/>
-      <c r="C21" s="33" t="s">
+      <c r="B21" s="38"/>
+      <c r="C21" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="23"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="32"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
       <c r="D22" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="F22" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="G22" s="25"/>
+      <c r="G22" s="29"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
       <c r="D23" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="24" t="s">
+      <c r="F23" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="G23" s="25"/>
+      <c r="G23" s="29"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
       <c r="D24" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="G24" s="25"/>
+      <c r="G24" s="29"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="34"/>
-      <c r="C25" s="35"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
       <c r="D25" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F25" s="24" t="s">
+      <c r="F25" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="G25" s="25"/>
+      <c r="G25" s="29"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="34"/>
-      <c r="C26" s="33" t="s">
+      <c r="B26" s="38"/>
+      <c r="C26" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="23"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="32"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
       <c r="D27" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="F27" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="G27" s="25"/>
+      <c r="G27" s="29"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
       <c r="D28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F28" s="24" t="s">
+      <c r="F28" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="G28" s="25"/>
+      <c r="G28" s="29"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
       <c r="D29" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F29" s="24" t="s">
+      <c r="F29" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="G29" s="25"/>
+      <c r="G29" s="29"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
       <c r="D30" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F30" s="24" t="s">
+      <c r="F30" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="G30" s="25"/>
+      <c r="G30" s="29"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="23"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="32"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="16"/>
-      <c r="C32" s="17"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="45"/>
       <c r="D32" s="4" t="s">
         <v>118</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F32" s="26" t="s">
+      <c r="F32" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="G32" s="27"/>
+      <c r="G32" s="41"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33" s="16"/>
-      <c r="C33" s="17"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="45"/>
       <c r="D33" s="4" t="s">
         <v>125</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F33" s="26" t="s">
+      <c r="F33" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="G33" s="27"/>
+      <c r="G33" s="41"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="45"/>
       <c r="D34" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F34" s="26" t="s">
+      <c r="F34" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="G34" s="27"/>
+      <c r="G34" s="41"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="47"/>
       <c r="D35" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F35" s="26" t="s">
+      <c r="F35" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="G35" s="27"/>
+      <c r="G35" s="41"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="23"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="32"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="16"/>
-      <c r="C37" s="17"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="45"/>
       <c r="D37" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F37" s="24" t="s">
+      <c r="F37" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="G37" s="25"/>
+      <c r="G37" s="29"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="16"/>
-      <c r="C38" s="17"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="45"/>
       <c r="D38" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F38" s="24" t="s">
+      <c r="F38" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="G38" s="25"/>
+      <c r="G38" s="29"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B39" s="16"/>
-      <c r="C39" s="17"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="45"/>
       <c r="D39" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F39" s="24" t="s">
+      <c r="F39" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="G39" s="25"/>
+      <c r="G39" s="29"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B40" s="16"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="36" t="s">
+      <c r="B40" s="44"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="E40" s="37" t="s">
+      <c r="E40" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="F40" s="38" t="s">
+      <c r="F40" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="G40" s="39"/>
+      <c r="G40" s="27"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B41" s="28" t="s">
+      <c r="B41" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="23"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="32"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B42" s="16"/>
-      <c r="C42" s="17"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="45"/>
       <c r="D42" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F42" s="24" t="s">
+      <c r="F42" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="G42" s="25"/>
+      <c r="G42" s="29"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B43" s="16"/>
-      <c r="C43" s="17"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="45"/>
       <c r="D43" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F43" s="24" t="s">
+      <c r="F43" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="G43" s="25"/>
+      <c r="G43" s="29"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B44" s="16"/>
-      <c r="C44" s="17"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="45"/>
       <c r="D44" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F44" s="24" t="s">
+      <c r="F44" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="G44" s="25"/>
+      <c r="G44" s="29"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B45" s="16"/>
-      <c r="C45" s="17"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="45"/>
       <c r="D45" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F45" s="24" t="s">
+      <c r="F45" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="G45" s="25"/>
+      <c r="G45" s="29"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B46" s="16"/>
-      <c r="C46" s="17"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="45"/>
       <c r="D46" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F46" s="24" t="s">
+      <c r="F46" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="G46" s="25"/>
+      <c r="G46" s="29"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B47" s="16"/>
-      <c r="C47" s="17"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="45"/>
       <c r="D47" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F47" s="24" t="s">
+      <c r="F47" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="G47" s="25"/>
+      <c r="G47" s="29"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B48" s="16"/>
-      <c r="C48" s="17"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="45"/>
       <c r="D48" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F48" s="24" t="s">
+      <c r="F48" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="G48" s="25"/>
+      <c r="G48" s="29"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B49" s="16"/>
-      <c r="C49" s="17"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="45"/>
       <c r="D49" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F49" s="24" t="s">
+      <c r="F49" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="G49" s="25"/>
+      <c r="G49" s="29"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B50" s="16"/>
-      <c r="C50" s="17"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="45"/>
       <c r="D50" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F50" s="24" t="s">
+      <c r="F50" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="G50" s="25"/>
+      <c r="G50" s="29"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B51" s="16"/>
-      <c r="C51" s="17"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="45"/>
       <c r="D51" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F51" s="24" t="s">
+      <c r="F51" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="G51" s="25"/>
+      <c r="G51" s="29"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B52" s="16"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="36" t="s">
+      <c r="B52" s="44"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="E52" s="37" t="s">
+      <c r="E52" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="F52" s="40" t="s">
+      <c r="F52" s="16" t="s">
         <v>152</v>
       </c>
       <c r="G52" s="11"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B53" s="16"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="36" t="s">
+      <c r="B53" s="44"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="E53" s="37" t="s">
+      <c r="E53" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="F53" s="38" t="s">
+      <c r="F53" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="G53" s="39"/>
-    </row>
-    <row r="54" spans="2:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="16"/>
-      <c r="C54" s="17"/>
+      <c r="G53" s="27"/>
+    </row>
+    <row r="54" spans="2:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="44"/>
+      <c r="C54" s="45"/>
       <c r="D54" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="E54" s="10"/>
+      <c r="F54" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="G54" s="25"/>
+      <c r="H54" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="E54" s="10"/>
-      <c r="F54" s="44" t="s">
-        <v>241</v>
-      </c>
-      <c r="G54" s="20"/>
-      <c r="H54" s="45" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="16"/>
-      <c r="C55" s="17"/>
+    </row>
+    <row r="55" spans="2:8" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="44"/>
+      <c r="C55" s="45"/>
       <c r="D55" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="E55" s="10"/>
+      <c r="F55" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="G55" s="25"/>
+      <c r="H55" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="E55" s="10"/>
-      <c r="F55" s="44" t="s">
-        <v>242</v>
-      </c>
-      <c r="G55" s="20"/>
-      <c r="H55" s="45" t="s">
-        <v>244</v>
-      </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B56" s="16"/>
-      <c r="C56" s="17"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="45"/>
       <c r="D56" s="9" t="s">
         <v>183</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="F56" s="42" t="s">
-        <v>225</v>
-      </c>
-      <c r="G56" s="43"/>
+      <c r="F56" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="G56" s="23"/>
       <c r="H56" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B57" s="16"/>
-      <c r="C57" s="17"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="45"/>
       <c r="D57" s="9" t="s">
         <v>184</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="F57" s="42" t="s">
-        <v>226</v>
-      </c>
-      <c r="G57" s="43"/>
+      <c r="F57" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="G57" s="23"/>
       <c r="H57" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="16"/>
-      <c r="C58" s="17"/>
+      <c r="B58" s="44"/>
+      <c r="C58" s="45"/>
       <c r="D58" s="9" t="s">
         <v>185</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="F58" s="42" t="s">
-        <v>227</v>
-      </c>
-      <c r="G58" s="43"/>
+      <c r="F58" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="G58" s="23"/>
       <c r="H58" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="16"/>
-      <c r="C59" s="17"/>
+      <c r="B59" s="44"/>
+      <c r="C59" s="45"/>
       <c r="D59" s="9" t="s">
         <v>186</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="F59" s="42" t="s">
-        <v>228</v>
-      </c>
-      <c r="G59" s="43"/>
+      <c r="F59" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="G59" s="23"/>
       <c r="H59" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="16"/>
-      <c r="C60" s="17"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="45"/>
       <c r="D60" s="9" t="s">
         <v>187</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="F60" s="42" t="s">
-        <v>229</v>
-      </c>
-      <c r="G60" s="43"/>
+      <c r="F60" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="G60" s="23"/>
       <c r="H60" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B61" s="16"/>
-      <c r="C61" s="17"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="45"/>
       <c r="D61" s="9" t="s">
         <v>188</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="F61" s="42" t="s">
-        <v>230</v>
-      </c>
-      <c r="G61" s="43"/>
+      <c r="F61" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="G61" s="23"/>
       <c r="H61" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="16"/>
-      <c r="C62" s="17"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="45"/>
       <c r="D62" s="9" t="s">
         <v>189</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="F62" s="42" t="s">
-        <v>231</v>
-      </c>
-      <c r="G62" s="43"/>
+      <c r="F62" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="G62" s="23"/>
       <c r="H62" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B63" s="16"/>
-      <c r="C63" s="17"/>
+      <c r="B63" s="44"/>
+      <c r="C63" s="45"/>
       <c r="D63" s="9" t="s">
         <v>190</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="F63" s="42" t="s">
-        <v>232</v>
-      </c>
-      <c r="G63" s="43"/>
+      <c r="F63" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="G63" s="23"/>
       <c r="H63" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B64" s="16"/>
-      <c r="C64" s="17"/>
+      <c r="B64" s="44"/>
+      <c r="C64" s="45"/>
       <c r="D64" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="F64" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="G64" s="19"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B65" s="44"/>
+      <c r="C65" s="45"/>
+      <c r="D65" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="E64" s="10" t="s">
+      <c r="E65" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="F64" s="42" t="s">
+      <c r="F65" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="G65" s="23"/>
+      <c r="H65" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B66" s="44"/>
+      <c r="C66" s="45"/>
+      <c r="D66" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="F66" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="G64" s="43"/>
-      <c r="H64" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B65" s="16"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="F65" s="42" t="s">
+      <c r="G66" s="23"/>
+      <c r="H66" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B67" s="44"/>
+      <c r="C67" s="45"/>
+      <c r="D67" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="F67" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="G67" s="23"/>
+      <c r="H67" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B68" s="44"/>
+      <c r="C68" s="45"/>
+      <c r="D68" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="F68" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="G65" s="43"/>
-      <c r="H65" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B66" s="16"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="F66" s="42" t="s">
+      <c r="G68" s="23"/>
+      <c r="H68" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B69" s="44"/>
+      <c r="C69" s="45"/>
+      <c r="D69" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="F69" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="G66" s="43"/>
-      <c r="H66" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B67" s="16"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="E67" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="F67" s="42" t="s">
+      <c r="G69" s="23"/>
+      <c r="H69" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B70" s="46"/>
+      <c r="C70" s="47"/>
+      <c r="D70" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="F70" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="G67" s="43"/>
-      <c r="H67" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B68" s="16"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="E68" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="F68" s="42" t="s">
-        <v>237</v>
-      </c>
-      <c r="G68" s="43"/>
-      <c r="H68" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B69" s="18"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="E69" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="F69" s="42" t="s">
-        <v>238</v>
-      </c>
-      <c r="G69" s="43"/>
-      <c r="H69" t="s">
+      <c r="G70" s="23"/>
+      <c r="H70" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B70" s="28" t="s">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B71" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="C70" s="15"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="1" t="s">
+      <c r="C71" s="43"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="G71" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="71" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B71" s="16"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="4" t="s">
+    <row r="72" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="B72" s="44"/>
+      <c r="C72" s="45"/>
+      <c r="D72" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="E72" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F71" s="7" t="s">
+      <c r="F72" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="G71" s="6" t="s">
+      <c r="G72" s="6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="72" spans="2:8" ht="132" x14ac:dyDescent="0.3">
-      <c r="B72" s="16"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="4" t="s">
+    <row r="73" spans="2:8" ht="132" x14ac:dyDescent="0.3">
+      <c r="B73" s="44"/>
+      <c r="C73" s="45"/>
+      <c r="D73" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="E73" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F72" s="8" t="s">
+      <c r="F73" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="G72" s="12" t="s">
+      <c r="G73" s="12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B73" s="16"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="36" t="s">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B74" s="44"/>
+      <c r="C74" s="45"/>
+      <c r="D74" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="E73" s="37" t="s">
+      <c r="E74" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="F73" s="13"/>
-      <c r="G73" s="41" t="s">
+      <c r="F74" s="13"/>
+      <c r="G74" s="17" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B74" s="16"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="36" t="s">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B75" s="44"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="E74" s="37" t="s">
+      <c r="E75" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="F74" s="13"/>
-      <c r="G74" s="41" t="s">
+      <c r="F75" s="13"/>
+      <c r="G75" s="17" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B75" s="16"/>
-      <c r="C75" s="17"/>
-      <c r="D75" s="36" t="s">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B76" s="44"/>
+      <c r="C76" s="45"/>
+      <c r="D76" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="E75" s="37" t="s">
+      <c r="E76" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="F75" s="13"/>
-      <c r="G75" s="41" t="s">
+      <c r="F76" s="13"/>
+      <c r="G76" s="17" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="76" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B76" s="16"/>
-      <c r="C76" s="17"/>
-      <c r="D76" s="4" t="s">
+    <row r="77" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="B77" s="44"/>
+      <c r="C77" s="45"/>
+      <c r="D77" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="E77" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F76" s="7" t="s">
+      <c r="F77" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="G76" s="6" t="s">
+      <c r="G77" s="6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B77" s="16"/>
-      <c r="C77" s="17"/>
-      <c r="D77" s="4" t="s">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B78" s="44"/>
+      <c r="C78" s="45"/>
+      <c r="D78" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E77" s="5" t="s">
+      <c r="E78" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F77" s="7" t="s">
+      <c r="F78" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G77" s="6" t="s">
+      <c r="G78" s="6" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="78" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B78" s="18"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="4" t="s">
+    <row r="79" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="B79" s="46"/>
+      <c r="C79" s="47"/>
+      <c r="D79" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E78" s="5" t="s">
+      <c r="E79" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F78" s="7" t="s">
+      <c r="F79" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="G78" s="6" t="s">
+      <c r="G79" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B79" s="28" t="s">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B80" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="C79" s="15"/>
-      <c r="D79" s="21"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="23"/>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B80" s="16"/>
-      <c r="C80" s="17"/>
-      <c r="D80" s="4" t="s">
+      <c r="C80" s="43"/>
+      <c r="D80" s="30"/>
+      <c r="E80" s="31"/>
+      <c r="F80" s="31"/>
+      <c r="G80" s="32"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B81" s="44"/>
+      <c r="C81" s="45"/>
+      <c r="D81" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E80" s="5" t="s">
+      <c r="E81" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F80" s="24" t="s">
+      <c r="F81" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="G80" s="25"/>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B81" s="16"/>
-      <c r="C81" s="17"/>
-      <c r="D81" s="4" t="s">
+      <c r="G81" s="29"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B82" s="44"/>
+      <c r="C82" s="45"/>
+      <c r="D82" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E81" s="5" t="s">
+      <c r="E82" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F81" s="24" t="s">
+      <c r="F82" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="G81" s="25"/>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B82" s="16"/>
-      <c r="C82" s="17"/>
-      <c r="D82" s="4" t="s">
+      <c r="G82" s="29"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B83" s="44"/>
+      <c r="C83" s="45"/>
+      <c r="D83" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E82" s="5" t="s">
+      <c r="E83" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F82" s="26" t="s">
+      <c r="F83" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="G82" s="27"/>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B83" s="16"/>
-      <c r="C83" s="17"/>
-      <c r="D83" s="4" t="s">
+      <c r="G83" s="41"/>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B84" s="44"/>
+      <c r="C84" s="45"/>
+      <c r="D84" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E83" s="5" t="s">
+      <c r="E84" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F83" s="24" t="s">
+      <c r="F84" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="G83" s="25"/>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B84" s="16"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="4" t="s">
+      <c r="G84" s="29"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B85" s="44"/>
+      <c r="C85" s="45"/>
+      <c r="D85" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E84" s="5" t="s">
+      <c r="E85" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F84" s="26" t="s">
+      <c r="F85" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="G84" s="27"/>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B85" s="18"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="4" t="s">
+      <c r="G85" s="41"/>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B86" s="46"/>
+      <c r="C86" s="47"/>
+      <c r="D86" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E85" s="5" t="s">
+      <c r="E86" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="F85" s="24" t="s">
+      <c r="F86" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="G85" s="25"/>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B86" s="14" t="s">
+      <c r="G86" s="29"/>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B87" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="C86" s="15"/>
-      <c r="D86" s="21"/>
-      <c r="E86" s="22"/>
-      <c r="F86" s="22"/>
-      <c r="G86" s="23"/>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B87" s="16"/>
-      <c r="C87" s="17"/>
-      <c r="D87" s="36" t="s">
+      <c r="C87" s="43"/>
+      <c r="D87" s="30"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="32"/>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B88" s="44"/>
+      <c r="C88" s="45"/>
+      <c r="D88" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="E87" s="37" t="s">
+      <c r="E88" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="F87" s="38" t="s">
+      <c r="F88" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="G87" s="39"/>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B88" s="18"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="36" t="s">
+      <c r="G88" s="27"/>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B89" s="46"/>
+      <c r="C89" s="47"/>
+      <c r="D89" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="E88" s="37" t="s">
+      <c r="E89" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="F88" s="38" t="s">
+      <c r="F89" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="G88" s="39"/>
+      <c r="G89" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B87:C89"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="D87:G87"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D80:G80"/>
+    <mergeCell ref="B31:C35"/>
+    <mergeCell ref="B36:C40"/>
+    <mergeCell ref="B41:C70"/>
+    <mergeCell ref="B71:C79"/>
+    <mergeCell ref="B80:C86"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
     <mergeCell ref="F51:G51"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="B2:C2"/>
@@ -2970,57 +3067,32 @@
     <mergeCell ref="C26:C30"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D79:G79"/>
-    <mergeCell ref="B31:C35"/>
-    <mergeCell ref="B36:C40"/>
-    <mergeCell ref="B41:C69"/>
-    <mergeCell ref="B70:C78"/>
-    <mergeCell ref="B79:C85"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="B86:C88"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="D86:G86"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F68:G68"/>
     <mergeCell ref="F69:G69"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="F65:G65"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3030,59 +3102,127 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R54" sqref="R54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="46" customWidth="1"/>
-    <col min="2" max="2" width="56.875" customWidth="1"/>
+    <col min="1" max="1" width="14.875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="26.25" customWidth="1"/>
     <col min="3" max="3" width="25.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="B3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="B4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="B5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="B6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="B7" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
-        <v>246</v>
-      </c>
-      <c r="B2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="C7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="B3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
-        <v>251</v>
-      </c>
-      <c r="B4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="46" t="s">
-        <v>251</v>
-      </c>
-      <c r="B5" t="s">
-        <v>250</v>
+      <c r="B8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="B9" t="s">
+        <v>259</v>
+      </c>
+      <c r="D9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>260</v>
+      </c>
+      <c r="D10" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3090,7 +3230,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>

--- a/com.js.ens.leveller/ver3_변수정의.xlsx
+++ b/com.js.ens.leveller/ver3_변수정의.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\8____내문서\workspace\2016\com.js.ens.leveller\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="13005"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="13005" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="type1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="변수선언" sheetId="1" r:id="rId1"/>
+    <sheet name="1_Flat" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="289">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -889,18 +883,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>굵은글씨 : ver2 업데이트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -913,43 +895,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mp01_define_post_set_flat.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>main_flat.proc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_define_parameters.proc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>m1_flat.proc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m1_a_flat.proc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a2_roll_gen.proc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a2_roll_gen_crown.proc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -998,12 +944,143 @@
     <t>%FrontHDRollVerticalPos%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>m1_a_flat.proc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mp01_define_post_set_flat.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mp01_redefine_post_set_flat.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YM=table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>constant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FS=table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEC=table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PR=table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Roll Crown!=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a5_condition.proc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a7_deformed_coordinate.proc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change_motion_to_load.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mill Stiffness=Spring(Rigid 일때는 안씀)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ap01_add_hdroll.py</t>
+  </si>
+  <si>
+    <t>main_flat.proc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_define_parameters.proc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a2_roll_gen.proc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mat01_elastic_modulus.proc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mat01_elastic_modulus_const.proc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mat02_flow_stress.proc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mat02_flow_stress_const.proc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mat03_thermal_expansion.proc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mat04_poisson.proc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mat03_thermal_expansion_const.proc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mat04_poisson_const.proc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a6_loadcase.proc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ap02_add_roll_movement.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1060,6 +1137,14 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -1285,7 +1370,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1352,85 +1437,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1493,7 +1584,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1525,10 +1616,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1560,7 +1650,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1736,14 +1825,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:I89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F54" sqref="F54:G54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="21.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
@@ -1754,22 +1843,22 @@
     <col min="8" max="8" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="35"/>
-      <c r="C2" s="36"/>
+    <row r="2" spans="2:9">
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
       <c r="D2" s="2" t="s">
         <v>122</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="G2" s="34"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="37" t="s">
+      <c r="G2" s="41"/>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="44" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="30"/>
@@ -1778,12 +1867,12 @@
       <c r="F3" s="31"/>
       <c r="G3" s="32"/>
       <c r="I3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="38"/>
-      <c r="C4" s="37" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="45"/>
+      <c r="C4" s="44" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -1792,57 +1881,57 @@
       <c r="E4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="29"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="34"/>
       <c r="I4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
       <c r="D5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="G5" s="29"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
+      <c r="G5" s="34"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
       <c r="D6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="G6" s="29"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="38"/>
-      <c r="C7" s="39"/>
+      <c r="G6" s="34"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="45"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="G7" s="29"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="38"/>
-      <c r="C8" s="37" t="s">
+      <c r="G7" s="34"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="45"/>
+      <c r="C8" s="44" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="30"/>
@@ -1850,65 +1939,65 @@
       <c r="F8" s="31"/>
       <c r="G8" s="32"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
+    <row r="9" spans="2:9">
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
       <c r="D9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="G9" s="29"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
+      <c r="G9" s="34"/>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
       <c r="D10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="G10" s="29"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
+      <c r="G10" s="34"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="G11" s="29"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="38"/>
-      <c r="C12" s="39"/>
+      <c r="G11" s="34"/>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="45"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="G12" s="29"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="38"/>
-      <c r="C13" s="37" t="s">
+      <c r="G12" s="34"/>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="45"/>
+      <c r="C13" s="44" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="30"/>
@@ -1916,37 +2005,37 @@
       <c r="F13" s="31"/>
       <c r="G13" s="32"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
+    <row r="14" spans="2:9">
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
       <c r="D14" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="G14" s="29"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="38"/>
-      <c r="C15" s="39"/>
+      <c r="G14" s="34"/>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
       <c r="D15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="G15" s="29"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="38"/>
-      <c r="C16" s="37" t="s">
+      <c r="G15" s="34"/>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="45"/>
+      <c r="C16" s="44" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="30"/>
@@ -1954,23 +2043,23 @@
       <c r="F16" s="31"/>
       <c r="G16" s="32"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="38"/>
-      <c r="C17" s="39"/>
+    <row r="17" spans="2:7">
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
       <c r="D17" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="28" t="s">
+      <c r="F17" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="G17" s="29"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="38"/>
-      <c r="C18" s="37" t="s">
+      <c r="G17" s="34"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="45"/>
+      <c r="C18" s="44" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="30"/>
@@ -1978,37 +2067,37 @@
       <c r="F18" s="31"/>
       <c r="G18" s="32"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
+    <row r="19" spans="2:7">
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
       <c r="D19" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="F19" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="G19" s="29"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="38"/>
-      <c r="C20" s="39"/>
+      <c r="G19" s="34"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="45"/>
+      <c r="C20" s="46"/>
       <c r="D20" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="F20" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="G20" s="29"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="38"/>
-      <c r="C21" s="37" t="s">
+      <c r="G20" s="34"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="45"/>
+      <c r="C21" s="44" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="30"/>
@@ -2016,65 +2105,65 @@
       <c r="F21" s="31"/>
       <c r="G21" s="32"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
+    <row r="22" spans="2:7">
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
       <c r="D22" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="28" t="s">
+      <c r="F22" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="G22" s="29"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
+      <c r="G22" s="34"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
       <c r="D23" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="28" t="s">
+      <c r="F23" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="G23" s="29"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
+      <c r="G23" s="34"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
       <c r="D24" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F24" s="28" t="s">
+      <c r="F24" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="G24" s="29"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="38"/>
-      <c r="C25" s="39"/>
+      <c r="G24" s="34"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="45"/>
+      <c r="C25" s="46"/>
       <c r="D25" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F25" s="28" t="s">
+      <c r="F25" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="G25" s="29"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="38"/>
-      <c r="C26" s="37" t="s">
+      <c r="G25" s="34"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="45"/>
+      <c r="C26" s="44" t="s">
         <v>23</v>
       </c>
       <c r="D26" s="30"/>
@@ -2082,347 +2171,347 @@
       <c r="F26" s="31"/>
       <c r="G26" s="32"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
+    <row r="27" spans="2:7">
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
       <c r="D27" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="28" t="s">
+      <c r="F27" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="G27" s="29"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
+      <c r="G27" s="34"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
       <c r="D28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F28" s="28" t="s">
+      <c r="F28" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="G28" s="29"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
+      <c r="G28" s="34"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
       <c r="D29" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F29" s="28" t="s">
+      <c r="F29" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="G29" s="29"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
+      <c r="G29" s="34"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
       <c r="D30" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F30" s="28" t="s">
+      <c r="F30" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="G30" s="29"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="42" t="s">
+      <c r="G30" s="34"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="43"/>
+      <c r="C31" s="23"/>
       <c r="D31" s="30"/>
       <c r="E31" s="31"/>
       <c r="F31" s="31"/>
       <c r="G31" s="32"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="44"/>
-      <c r="C32" s="45"/>
+    <row r="32" spans="2:7">
+      <c r="B32" s="24"/>
+      <c r="C32" s="25"/>
       <c r="D32" s="4" t="s">
         <v>118</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F32" s="40" t="s">
+      <c r="F32" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="G32" s="41"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33" s="44"/>
-      <c r="C33" s="45"/>
+      <c r="G32" s="36"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
       <c r="D33" s="4" t="s">
         <v>125</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F33" s="40" t="s">
+      <c r="F33" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="G33" s="41"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B34" s="44"/>
-      <c r="C34" s="45"/>
+      <c r="G33" s="36"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="24"/>
+      <c r="C34" s="25"/>
       <c r="D34" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F34" s="40" t="s">
+      <c r="F34" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="G34" s="41"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="46"/>
-      <c r="C35" s="47"/>
+      <c r="G34" s="36"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="26"/>
+      <c r="C35" s="27"/>
       <c r="D35" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F35" s="40" t="s">
+      <c r="F35" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="G35" s="41"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="42" t="s">
+      <c r="G35" s="36"/>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="C36" s="43"/>
+      <c r="C36" s="23"/>
       <c r="D36" s="30"/>
       <c r="E36" s="31"/>
       <c r="F36" s="31"/>
       <c r="G36" s="32"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="44"/>
-      <c r="C37" s="45"/>
+    <row r="37" spans="2:7">
+      <c r="B37" s="24"/>
+      <c r="C37" s="25"/>
       <c r="D37" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F37" s="28" t="s">
+      <c r="F37" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="G37" s="29"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="44"/>
-      <c r="C38" s="45"/>
+      <c r="G37" s="34"/>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="24"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F38" s="28" t="s">
+      <c r="F38" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="G38" s="29"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B39" s="44"/>
-      <c r="C39" s="45"/>
+      <c r="G38" s="34"/>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="24"/>
+      <c r="C39" s="25"/>
       <c r="D39" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F39" s="28" t="s">
+      <c r="F39" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="G39" s="29"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B40" s="44"/>
-      <c r="C40" s="45"/>
+      <c r="G39" s="34"/>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
       <c r="D40" s="14" t="s">
         <v>149</v>
       </c>
       <c r="E40" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="F40" s="26" t="s">
+      <c r="F40" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="G40" s="27"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B41" s="42" t="s">
+      <c r="G40" s="29"/>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="C41" s="43"/>
+      <c r="C41" s="23"/>
       <c r="D41" s="30"/>
       <c r="E41" s="31"/>
       <c r="F41" s="31"/>
       <c r="G41" s="32"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B42" s="44"/>
-      <c r="C42" s="45"/>
+    <row r="42" spans="2:7">
+      <c r="B42" s="24"/>
+      <c r="C42" s="25"/>
       <c r="D42" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F42" s="28" t="s">
+      <c r="F42" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="G42" s="29"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B43" s="44"/>
-      <c r="C43" s="45"/>
+      <c r="G42" s="34"/>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="24"/>
+      <c r="C43" s="25"/>
       <c r="D43" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F43" s="28" t="s">
+      <c r="F43" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="G43" s="29"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B44" s="44"/>
-      <c r="C44" s="45"/>
+      <c r="G43" s="34"/>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="24"/>
+      <c r="C44" s="25"/>
       <c r="D44" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F44" s="28" t="s">
+      <c r="F44" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="G44" s="29"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B45" s="44"/>
-      <c r="C45" s="45"/>
+      <c r="G44" s="34"/>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="24"/>
+      <c r="C45" s="25"/>
       <c r="D45" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F45" s="28" t="s">
+      <c r="F45" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="G45" s="29"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B46" s="44"/>
-      <c r="C46" s="45"/>
+      <c r="G45" s="34"/>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="24"/>
+      <c r="C46" s="25"/>
       <c r="D46" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F46" s="28" t="s">
+      <c r="F46" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="G46" s="29"/>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B47" s="44"/>
-      <c r="C47" s="45"/>
+      <c r="G46" s="34"/>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="24"/>
+      <c r="C47" s="25"/>
       <c r="D47" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F47" s="28" t="s">
+      <c r="F47" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="G47" s="29"/>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B48" s="44"/>
-      <c r="C48" s="45"/>
+      <c r="G47" s="34"/>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="24"/>
+      <c r="C48" s="25"/>
       <c r="D48" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F48" s="28" t="s">
+      <c r="F48" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="G48" s="29"/>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B49" s="44"/>
-      <c r="C49" s="45"/>
+      <c r="G48" s="34"/>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="24"/>
+      <c r="C49" s="25"/>
       <c r="D49" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F49" s="28" t="s">
+      <c r="F49" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="G49" s="29"/>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B50" s="44"/>
-      <c r="C50" s="45"/>
+      <c r="G49" s="34"/>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="24"/>
+      <c r="C50" s="25"/>
       <c r="D50" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F50" s="28" t="s">
+      <c r="F50" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="G50" s="29"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B51" s="44"/>
-      <c r="C51" s="45"/>
+      <c r="G50" s="34"/>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="24"/>
+      <c r="C51" s="25"/>
       <c r="D51" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F51" s="28" t="s">
+      <c r="F51" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="G51" s="29"/>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B52" s="44"/>
-      <c r="C52" s="45"/>
+      <c r="G51" s="34"/>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="24"/>
+      <c r="C52" s="25"/>
       <c r="D52" s="14" t="s">
         <v>155</v>
       </c>
@@ -2434,307 +2523,307 @@
       </c>
       <c r="G52" s="11"/>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B53" s="44"/>
-      <c r="C53" s="45"/>
+    <row r="53" spans="2:8">
+      <c r="B53" s="24"/>
+      <c r="C53" s="25"/>
       <c r="D53" s="14" t="s">
         <v>153</v>
       </c>
       <c r="E53" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="F53" s="26" t="s">
+      <c r="F53" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="G53" s="27"/>
-    </row>
-    <row r="54" spans="2:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="44"/>
-      <c r="C54" s="45"/>
+      <c r="G53" s="29"/>
+    </row>
+    <row r="54" spans="2:8" ht="70.5" customHeight="1">
+      <c r="B54" s="24"/>
+      <c r="C54" s="25"/>
       <c r="D54" s="9" t="s">
         <v>237</v>
       </c>
       <c r="E54" s="10"/>
-      <c r="F54" s="24" t="s">
-        <v>261</v>
-      </c>
-      <c r="G54" s="25"/>
+      <c r="F54" s="47" t="s">
+        <v>249</v>
+      </c>
+      <c r="G54" s="48"/>
       <c r="H54" s="20" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="55" spans="2:8" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="44"/>
-      <c r="C55" s="45"/>
+    <row r="55" spans="2:8" ht="69" customHeight="1">
+      <c r="B55" s="24"/>
+      <c r="C55" s="25"/>
       <c r="D55" s="9" t="s">
         <v>238</v>
       </c>
       <c r="E55" s="10"/>
-      <c r="F55" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G55" s="25"/>
+      <c r="F55" s="47" t="s">
+        <v>250</v>
+      </c>
+      <c r="G55" s="48"/>
       <c r="H55" s="20" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B56" s="44"/>
-      <c r="C56" s="45"/>
+    <row r="56" spans="2:8">
+      <c r="B56" s="24"/>
+      <c r="C56" s="25"/>
       <c r="D56" s="9" t="s">
         <v>183</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="F56" s="22" t="s">
-        <v>263</v>
-      </c>
-      <c r="G56" s="23"/>
+      <c r="F56" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="G56" s="38"/>
       <c r="H56" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B57" s="44"/>
-      <c r="C57" s="45"/>
+    <row r="57" spans="2:8">
+      <c r="B57" s="24"/>
+      <c r="C57" s="25"/>
       <c r="D57" s="9" t="s">
         <v>184</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="F57" s="22" t="s">
+      <c r="F57" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="G57" s="23"/>
+      <c r="G57" s="38"/>
       <c r="H57" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="44"/>
-      <c r="C58" s="45"/>
+    <row r="58" spans="2:8">
+      <c r="B58" s="24"/>
+      <c r="C58" s="25"/>
       <c r="D58" s="9" t="s">
         <v>185</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="F58" s="22" t="s">
+      <c r="F58" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="G58" s="23"/>
+      <c r="G58" s="38"/>
       <c r="H58" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="44"/>
-      <c r="C59" s="45"/>
+    <row r="59" spans="2:8">
+      <c r="B59" s="24"/>
+      <c r="C59" s="25"/>
       <c r="D59" s="9" t="s">
         <v>186</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="F59" s="22" t="s">
+      <c r="F59" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="G59" s="23"/>
+      <c r="G59" s="38"/>
       <c r="H59" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="44"/>
-      <c r="C60" s="45"/>
+    <row r="60" spans="2:8">
+      <c r="B60" s="24"/>
+      <c r="C60" s="25"/>
       <c r="D60" s="9" t="s">
         <v>187</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="F60" s="22" t="s">
+      <c r="F60" s="37" t="s">
         <v>228</v>
       </c>
-      <c r="G60" s="23"/>
+      <c r="G60" s="38"/>
       <c r="H60" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B61" s="44"/>
-      <c r="C61" s="45"/>
+    <row r="61" spans="2:8">
+      <c r="B61" s="24"/>
+      <c r="C61" s="25"/>
       <c r="D61" s="9" t="s">
         <v>188</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="F61" s="22" t="s">
+      <c r="F61" s="37" t="s">
         <v>229</v>
       </c>
-      <c r="G61" s="23"/>
+      <c r="G61" s="38"/>
       <c r="H61" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="44"/>
-      <c r="C62" s="45"/>
+    <row r="62" spans="2:8">
+      <c r="B62" s="24"/>
+      <c r="C62" s="25"/>
       <c r="D62" s="9" t="s">
         <v>189</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="F62" s="22" t="s">
+      <c r="F62" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="G62" s="23"/>
+      <c r="G62" s="38"/>
       <c r="H62" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B63" s="44"/>
-      <c r="C63" s="45"/>
+    <row r="63" spans="2:8">
+      <c r="B63" s="24"/>
+      <c r="C63" s="25"/>
       <c r="D63" s="9" t="s">
         <v>190</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="F63" s="22" t="s">
+      <c r="F63" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="G63" s="23"/>
+      <c r="G63" s="38"/>
       <c r="H63" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B64" s="44"/>
-      <c r="C64" s="45"/>
+    <row r="64" spans="2:8">
+      <c r="B64" s="24"/>
+      <c r="C64" s="25"/>
       <c r="D64" s="9" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="F64" s="18" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="G64" s="19"/>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B65" s="44"/>
-      <c r="C65" s="45"/>
+    <row r="65" spans="2:8">
+      <c r="B65" s="24"/>
+      <c r="C65" s="25"/>
       <c r="D65" s="9" t="s">
         <v>191</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="F65" s="22" t="s">
+      <c r="F65" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="G65" s="23"/>
+      <c r="G65" s="38"/>
       <c r="H65" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B66" s="44"/>
-      <c r="C66" s="45"/>
+    <row r="66" spans="2:8">
+      <c r="B66" s="24"/>
+      <c r="C66" s="25"/>
       <c r="D66" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E66" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="F66" s="22" t="s">
+      <c r="F66" s="37" t="s">
         <v>233</v>
       </c>
-      <c r="G66" s="23"/>
+      <c r="G66" s="38"/>
       <c r="H66" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B67" s="44"/>
-      <c r="C67" s="45"/>
+    <row r="67" spans="2:8">
+      <c r="B67" s="24"/>
+      <c r="C67" s="25"/>
       <c r="D67" s="9" t="s">
         <v>193</v>
       </c>
       <c r="E67" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="F67" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="G67" s="23"/>
+      <c r="F67" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="G67" s="38"/>
       <c r="H67" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B68" s="44"/>
-      <c r="C68" s="45"/>
+    <row r="68" spans="2:8">
+      <c r="B68" s="24"/>
+      <c r="C68" s="25"/>
       <c r="D68" s="9" t="s">
         <v>194</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="F68" s="22" t="s">
+      <c r="F68" s="37" t="s">
         <v>234</v>
       </c>
-      <c r="G68" s="23"/>
+      <c r="G68" s="38"/>
       <c r="H68" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B69" s="44"/>
-      <c r="C69" s="45"/>
+    <row r="69" spans="2:8">
+      <c r="B69" s="24"/>
+      <c r="C69" s="25"/>
       <c r="D69" s="9" t="s">
         <v>195</v>
       </c>
       <c r="E69" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="F69" s="22" t="s">
+      <c r="F69" s="37" t="s">
         <v>235</v>
       </c>
-      <c r="G69" s="23"/>
+      <c r="G69" s="38"/>
       <c r="H69" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B70" s="46"/>
-      <c r="C70" s="47"/>
+    <row r="70" spans="2:8">
+      <c r="B70" s="26"/>
+      <c r="C70" s="27"/>
       <c r="D70" s="9" t="s">
         <v>196</v>
       </c>
       <c r="E70" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="F70" s="22" t="s">
+      <c r="F70" s="37" t="s">
         <v>236</v>
       </c>
-      <c r="G70" s="23"/>
+      <c r="G70" s="38"/>
       <c r="H70" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B71" s="42" t="s">
+    <row r="71" spans="2:8">
+      <c r="B71" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="C71" s="43"/>
+      <c r="C71" s="23"/>
       <c r="D71" s="30"/>
       <c r="E71" s="32"/>
       <c r="F71" s="1" t="s">
@@ -2744,9 +2833,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="72" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B72" s="44"/>
-      <c r="C72" s="45"/>
+    <row r="72" spans="2:8" ht="33">
+      <c r="B72" s="24"/>
+      <c r="C72" s="25"/>
       <c r="D72" s="4" t="s">
         <v>44</v>
       </c>
@@ -2760,9 +2849,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="73" spans="2:8" ht="132" x14ac:dyDescent="0.3">
-      <c r="B73" s="44"/>
-      <c r="C73" s="45"/>
+    <row r="73" spans="2:8" ht="132">
+      <c r="B73" s="24"/>
+      <c r="C73" s="25"/>
       <c r="D73" s="4" t="s">
         <v>158</v>
       </c>
@@ -2776,9 +2865,9 @@
         <v>173</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B74" s="44"/>
-      <c r="C74" s="45"/>
+    <row r="74" spans="2:8">
+      <c r="B74" s="24"/>
+      <c r="C74" s="25"/>
       <c r="D74" s="14" t="s">
         <v>159</v>
       </c>
@@ -2790,9 +2879,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B75" s="44"/>
-      <c r="C75" s="45"/>
+    <row r="75" spans="2:8">
+      <c r="B75" s="24"/>
+      <c r="C75" s="25"/>
       <c r="D75" s="14" t="s">
         <v>162</v>
       </c>
@@ -2804,9 +2893,9 @@
         <v>164</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B76" s="44"/>
-      <c r="C76" s="45"/>
+    <row r="76" spans="2:8">
+      <c r="B76" s="24"/>
+      <c r="C76" s="25"/>
       <c r="D76" s="14" t="s">
         <v>165</v>
       </c>
@@ -2818,9 +2907,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="77" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B77" s="44"/>
-      <c r="C77" s="45"/>
+    <row r="77" spans="2:8" ht="33">
+      <c r="B77" s="24"/>
+      <c r="C77" s="25"/>
       <c r="D77" s="4" t="s">
         <v>45</v>
       </c>
@@ -2834,9 +2923,9 @@
         <v>171</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B78" s="44"/>
-      <c r="C78" s="45"/>
+    <row r="78" spans="2:8">
+      <c r="B78" s="24"/>
+      <c r="C78" s="25"/>
       <c r="D78" s="4" t="s">
         <v>46</v>
       </c>
@@ -2850,9 +2939,9 @@
         <v>168</v>
       </c>
     </row>
-    <row r="79" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B79" s="46"/>
-      <c r="C79" s="47"/>
+    <row r="79" spans="2:8" ht="33">
+      <c r="B79" s="26"/>
+      <c r="C79" s="27"/>
       <c r="D79" s="4" t="s">
         <v>47</v>
       </c>
@@ -2866,140 +2955,217 @@
         <v>172</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B80" s="42" t="s">
+    <row r="80" spans="2:8">
+      <c r="B80" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="C80" s="43"/>
+      <c r="C80" s="23"/>
       <c r="D80" s="30"/>
       <c r="E80" s="31"/>
       <c r="F80" s="31"/>
       <c r="G80" s="32"/>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B81" s="44"/>
-      <c r="C81" s="45"/>
+    <row r="81" spans="2:7">
+      <c r="B81" s="24"/>
+      <c r="C81" s="25"/>
       <c r="D81" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F81" s="28" t="s">
+      <c r="F81" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="G81" s="29"/>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B82" s="44"/>
-      <c r="C82" s="45"/>
+      <c r="G81" s="34"/>
+    </row>
+    <row r="82" spans="2:7">
+      <c r="B82" s="24"/>
+      <c r="C82" s="25"/>
       <c r="D82" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F82" s="28" t="s">
+      <c r="F82" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="G82" s="29"/>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B83" s="44"/>
-      <c r="C83" s="45"/>
+      <c r="G82" s="34"/>
+    </row>
+    <row r="83" spans="2:7">
+      <c r="B83" s="24"/>
+      <c r="C83" s="25"/>
       <c r="D83" s="4" t="s">
         <v>51</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F83" s="40" t="s">
+      <c r="F83" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="G83" s="41"/>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B84" s="44"/>
-      <c r="C84" s="45"/>
+      <c r="G83" s="36"/>
+    </row>
+    <row r="84" spans="2:7">
+      <c r="B84" s="24"/>
+      <c r="C84" s="25"/>
       <c r="D84" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F84" s="28" t="s">
+      <c r="F84" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="G84" s="29"/>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B85" s="44"/>
-      <c r="C85" s="45"/>
+      <c r="G84" s="34"/>
+    </row>
+    <row r="85" spans="2:7">
+      <c r="B85" s="24"/>
+      <c r="C85" s="25"/>
       <c r="D85" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F85" s="40" t="s">
+      <c r="F85" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="G85" s="41"/>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B86" s="46"/>
-      <c r="C86" s="47"/>
+      <c r="G85" s="36"/>
+    </row>
+    <row r="86" spans="2:7">
+      <c r="B86" s="26"/>
+      <c r="C86" s="27"/>
       <c r="D86" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="F86" s="28" t="s">
+      <c r="F86" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="G86" s="29"/>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B87" s="48" t="s">
+      <c r="G86" s="34"/>
+    </row>
+    <row r="87" spans="2:7">
+      <c r="B87" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="C87" s="43"/>
+      <c r="C87" s="23"/>
       <c r="D87" s="30"/>
       <c r="E87" s="31"/>
       <c r="F87" s="31"/>
       <c r="G87" s="32"/>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B88" s="44"/>
-      <c r="C88" s="45"/>
+    <row r="88" spans="2:7">
+      <c r="B88" s="24"/>
+      <c r="C88" s="25"/>
       <c r="D88" s="14" t="s">
         <v>177</v>
       </c>
       <c r="E88" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="F88" s="26" t="s">
+      <c r="F88" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="G88" s="27"/>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B89" s="46"/>
-      <c r="C89" s="47"/>
+      <c r="G88" s="29"/>
+    </row>
+    <row r="89" spans="2:7">
+      <c r="B89" s="26"/>
+      <c r="C89" s="27"/>
       <c r="D89" s="14" t="s">
         <v>180</v>
       </c>
       <c r="E89" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="F89" s="26" t="s">
+      <c r="F89" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="G89" s="27"/>
+      <c r="G89" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="93">
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="B3:B30"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D80:G80"/>
+    <mergeCell ref="B31:C35"/>
+    <mergeCell ref="B36:C40"/>
+    <mergeCell ref="B41:C70"/>
+    <mergeCell ref="B71:C79"/>
+    <mergeCell ref="B80:C86"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
     <mergeCell ref="B87:C89"/>
     <mergeCell ref="F88:G88"/>
     <mergeCell ref="F89:G89"/>
@@ -3016,83 +3182,6 @@
     <mergeCell ref="F70:G70"/>
     <mergeCell ref="F81:G81"/>
     <mergeCell ref="F82:G82"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D80:G80"/>
-    <mergeCell ref="B31:C35"/>
-    <mergeCell ref="B36:C40"/>
-    <mergeCell ref="B41:C70"/>
-    <mergeCell ref="B71:C79"/>
-    <mergeCell ref="B80:C86"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="B3:B30"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="F65:G65"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3101,122 +3190,312 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R54" sqref="R54"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="21" customWidth="1"/>
-    <col min="2" max="2" width="26.25" customWidth="1"/>
-    <col min="3" max="3" width="25.25" customWidth="1"/>
+    <col min="1" max="2" width="14.875" style="21" customWidth="1"/>
+    <col min="3" max="3" width="26.25" customWidth="1"/>
+    <col min="4" max="4" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="E1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="50" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>272</v>
+      </c>
+      <c r="F2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="50" t="s">
+        <v>284</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>273</v>
+      </c>
+      <c r="F3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="C4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D5" t="s">
+        <v>256</v>
+      </c>
+      <c r="F5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="D6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="D7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>274</v>
+      </c>
+      <c r="E8" t="s">
+        <v>266</v>
+      </c>
+      <c r="F8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="50" t="s">
+        <v>284</v>
+      </c>
+      <c r="C9" s="49" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="B2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="B3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="B4" t="s">
-        <v>252</v>
-      </c>
-      <c r="D4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="B5" t="s">
-        <v>253</v>
-      </c>
-      <c r="D5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="F9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>275</v>
+      </c>
+      <c r="E10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>276</v>
+      </c>
+      <c r="E11" t="s">
+        <v>262</v>
+      </c>
+      <c r="F11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>277</v>
+      </c>
+      <c r="E12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F12" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>278</v>
+      </c>
+      <c r="E13" t="s">
+        <v>262</v>
+      </c>
+      <c r="F13" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="E14" t="s">
+        <v>264</v>
+      </c>
+      <c r="F14" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="D15" s="49" t="s">
+        <v>281</v>
+      </c>
+      <c r="E15" t="s">
+        <v>262</v>
+      </c>
+      <c r="F15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="D16" s="49" t="s">
+        <v>280</v>
+      </c>
+      <c r="E16" t="s">
+        <v>265</v>
+      </c>
+      <c r="F16" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="D17" s="49" t="s">
+        <v>282</v>
+      </c>
+      <c r="E17" t="s">
+        <v>262</v>
+      </c>
+      <c r="F17" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="50" t="s">
+        <v>284</v>
+      </c>
+      <c r="D18" s="49" t="s">
+        <v>247</v>
+      </c>
+      <c r="E18" t="s">
+        <v>262</v>
+      </c>
+      <c r="F18" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="C19" s="49" t="s">
         <v>248</v>
       </c>
-      <c r="B6" t="s">
-        <v>249</v>
-      </c>
-      <c r="D6" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="B7" t="s">
-        <v>254</v>
-      </c>
-      <c r="C7" t="s">
-        <v>255</v>
-      </c>
-      <c r="D7" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="B8" t="s">
-        <v>258</v>
-      </c>
-      <c r="D8" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="B9" t="s">
-        <v>259</v>
-      </c>
-      <c r="D9" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+      <c r="F19" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="D10" t="s">
-        <v>257</v>
+      <c r="C20" t="s">
+        <v>267</v>
+      </c>
+      <c r="F20" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>283</v>
+      </c>
+      <c r="F21" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="C22" t="s">
+        <v>268</v>
+      </c>
+      <c r="F22" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="C23" t="s">
+        <v>269</v>
+      </c>
+      <c r="E23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="C24" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="C25" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -3224,19 +3503,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/com.js.ens.leveller/ver3_변수정의.xlsx
+++ b/com.js.ens.leveller/ver3_변수정의.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="13005" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="13005"/>
   </bookViews>
   <sheets>
     <sheet name="변수선언" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="301">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -842,9 +842,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a3_material_define.proc</t>
-  </si>
-  <si>
     <t>mat05_mass_density.proc</t>
   </si>
   <si>
@@ -948,11 +945,164 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>a2_roll_gen.proc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mat01_elastic_modulus_const.proc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mat04_poisson.proc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mat04_poisson_const.proc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a6_loadcase.proc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ap02_add_roll_movement.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type2_textLeftEdgeWavePitch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type2_textRightEdgeWavePitch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%RightEdgeWaveHeight%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type2_textRightEdgeWaveHeight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Left edge wave phase</t>
+  </si>
+  <si>
+    <t>Right edge wave phase</t>
+  </si>
+  <si>
+    <t>MaxWaveHeight</t>
+  </si>
+  <si>
+    <t>%MaxWaveHeight%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%RightEdgeWavePhase%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%LeftEdgeWavePhase%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type2_textLeftEdgeWavePhase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type2_textRightEdgeWavePhase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type3_textWavePitch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type3_textWaveHeight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type4_textGutterHeight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type5_textGutterHeight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type5_textGutterLength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type6_textHeadGutterHeight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type7_textHeadGutterHeight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>textPlateVelocity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%PlateVelocity%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spinnerUpperRollNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spinnerLowerRollNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDRollType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%value_YieldStrength%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>textYoungsModulus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RollCrown 값에따라 생성 파일 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mill Stiffness 값에따라 py 파일 추가 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>textElongation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>00_define_parameters.proc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a2_roll_gen.proc</t>
+    <t>a3_material_define.proc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -960,10 +1110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mat01_elastic_modulus_const.proc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mat02_flow_stress.proc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -976,152 +1122,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mat04_poisson.proc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mat03_thermal_expansion_const.proc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mat04_poisson_const.proc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a6_loadcase.proc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조건</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>위치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ap02_add_roll_movement.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type2_textLeftEdgeWavePitch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type2_textRightEdgeWavePitch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%RightEdgeWaveHeight%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type2_textRightEdgeWaveHeight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Left edge wave phase</t>
-  </si>
-  <si>
-    <t>Right edge wave phase</t>
-  </si>
-  <si>
-    <t>MaxWaveHeight</t>
-  </si>
-  <si>
-    <t>%MaxWaveHeight%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%RightEdgeWavePhase%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%LeftEdgeWavePhase%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type2_textLeftEdgeWavePhase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type2_textRightEdgeWavePhase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type3_textWavePitch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type3_textWaveHeight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type4_textGutterHeight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type5_textGutterHeight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type5_textGutterLength</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type6_textHeadGutterHeight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type7_textHeadGutterHeight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>textPlateVelocity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%PlateVelocity%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spinnerUpperRollNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spinnerLowerRollNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HDRollType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%value_YieldStrength%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>textYoungsModulus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RollCrown 값에따라 생성 파일 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mill Stiffness 값에따라 py 파일 추가 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>textElongation</t>
+    <t>%ElementNumberOfThicknessDirection%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%AspectRatioOfWidthDirection%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%AspectRatioOfLengthDirection%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%NumberOfElements%     ??</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1492,86 +1509,86 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1879,8 +1896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I92"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E87" sqref="E87"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39:G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1895,21 +1912,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="37"/>
-      <c r="C2" s="38"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
       <c r="D2" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="G2" s="36"/>
+      <c r="G2" s="43"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="32"/>
@@ -1922,8 +1939,8 @@
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="40"/>
-      <c r="C4" s="39" t="s">
+      <c r="B4" s="47"/>
+      <c r="C4" s="46" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -1932,57 +1949,57 @@
       <c r="E4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="31"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36"/>
       <c r="I4" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
       <c r="D5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="G5" s="31"/>
+      <c r="G5" s="36"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
       <c r="D6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="31"/>
+      <c r="G6" s="36"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="40"/>
-      <c r="C7" s="41"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="48"/>
       <c r="D7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="G7" s="31"/>
+      <c r="G7" s="36"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="40"/>
-      <c r="C8" s="39" t="s">
+      <c r="B8" s="47"/>
+      <c r="C8" s="46" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="32"/>
@@ -1991,104 +2008,104 @@
       <c r="G8" s="34"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F9" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="F9" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="G9" s="31"/>
+      <c r="G9" s="36"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
       <c r="D10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="F10" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="F10" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="G10" s="31"/>
+      <c r="G10" s="36"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
       <c r="D11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="G11" s="31"/>
+      <c r="G11" s="36"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
       <c r="D12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="G12" s="36"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F13" s="35" t="s">
         <v>270</v>
       </c>
-      <c r="G12" s="31"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="4" t="s">
+      <c r="G13" s="36"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>277</v>
-      </c>
-      <c r="G13" s="31"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>276</v>
-      </c>
-      <c r="G14" s="31"/>
+      <c r="F14" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="G14" s="36"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="40"/>
-      <c r="C15" s="41"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="48"/>
       <c r="D15" s="4"/>
       <c r="E15" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>275</v>
-      </c>
-      <c r="G15" s="31"/>
+        <v>267</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="G15" s="36"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="40"/>
-      <c r="C16" s="39" t="s">
+      <c r="B16" s="47"/>
+      <c r="C16" s="46" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="32"/>
@@ -2097,36 +2114,36 @@
       <c r="G16" s="34"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
       <c r="D17" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="F17" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="F17" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="G17" s="31"/>
+      <c r="G17" s="36"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="40"/>
-      <c r="C18" s="41"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="48"/>
       <c r="D18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="F18" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="F18" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="G18" s="31"/>
+      <c r="G18" s="36"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="40"/>
-      <c r="C19" s="39" t="s">
+      <c r="B19" s="47"/>
+      <c r="C19" s="46" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="32"/>
@@ -2135,22 +2152,22 @@
       <c r="G19" s="34"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="40"/>
-      <c r="C20" s="41"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="48"/>
       <c r="D20" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="F20" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="F20" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="G20" s="31"/>
+      <c r="G20" s="36"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="40"/>
-      <c r="C21" s="39" t="s">
+      <c r="B21" s="47"/>
+      <c r="C21" s="46" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="32"/>
@@ -2159,36 +2176,36 @@
       <c r="G21" s="34"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
       <c r="D22" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="F22" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="F22" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="G22" s="31"/>
+      <c r="G22" s="36"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="40"/>
-      <c r="C23" s="41"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="48"/>
       <c r="D23" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="F23" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="F23" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="G23" s="31"/>
+      <c r="G23" s="36"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="40"/>
-      <c r="C24" s="39" t="s">
+      <c r="B24" s="47"/>
+      <c r="C24" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="32"/>
@@ -2197,64 +2214,64 @@
       <c r="G24" s="34"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
       <c r="D25" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="F25" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="F25" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="G25" s="31"/>
+      <c r="G25" s="36"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
       <c r="D26" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F26" s="30" t="s">
+      <c r="F26" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="G26" s="31"/>
+      <c r="G26" s="36"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
       <c r="D27" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F27" s="30" t="s">
+      <c r="F27" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="G27" s="31"/>
+      <c r="G27" s="36"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="40"/>
-      <c r="C28" s="41"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="48"/>
       <c r="D28" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F28" s="30" t="s">
+      <c r="F28" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="G28" s="31"/>
+      <c r="G28" s="36"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="40"/>
-      <c r="C29" s="39" t="s">
+      <c r="B29" s="47"/>
+      <c r="C29" s="46" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="32"/>
@@ -2263,346 +2280,346 @@
       <c r="G29" s="34"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
       <c r="D30" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="F30" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="F30" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="G30" s="31"/>
+      <c r="G30" s="36"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
       <c r="D31" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F31" s="30" t="s">
+      <c r="F31" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="G31" s="31"/>
+      <c r="G31" s="36"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
       <c r="D32" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F32" s="30" t="s">
+      <c r="F32" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="G32" s="31"/>
+      <c r="G32" s="36"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
       <c r="D33" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F33" s="30" t="s">
+      <c r="F33" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="G33" s="31"/>
+      <c r="G33" s="36"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="45"/>
+      <c r="C34" s="25"/>
       <c r="D34" s="32"/>
       <c r="E34" s="33"/>
       <c r="F34" s="33"/>
       <c r="G34" s="34"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="46"/>
-      <c r="C35" s="47"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="27"/>
       <c r="D35" s="4" t="s">
         <v>103</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F35" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="G35" s="43"/>
+      <c r="F35" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="G35" s="36"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="46"/>
-      <c r="C36" s="47"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="27"/>
       <c r="D36" s="4" t="s">
         <v>110</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F36" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="G36" s="43"/>
+      <c r="F36" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="G36" s="36"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="46"/>
-      <c r="C37" s="47"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="27"/>
       <c r="D37" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F37" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="G37" s="43"/>
+      <c r="F37" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="G37" s="36"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="48"/>
-      <c r="C38" s="49"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="29"/>
       <c r="D38" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F38" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="G38" s="43"/>
+      <c r="F38" s="35" t="s">
+        <v>300</v>
+      </c>
+      <c r="G38" s="36"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B39" s="44" t="s">
+      <c r="B39" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="C39" s="45"/>
+      <c r="C39" s="25"/>
       <c r="D39" s="32"/>
       <c r="E39" s="33"/>
       <c r="F39" s="33"/>
       <c r="G39" s="34"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B40" s="46"/>
-      <c r="C40" s="47"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="27"/>
       <c r="D40" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="F40" s="30" t="s">
-        <v>288</v>
-      </c>
-      <c r="G40" s="31"/>
+        <v>280</v>
+      </c>
+      <c r="F40" s="35" t="s">
+        <v>281</v>
+      </c>
+      <c r="G40" s="36"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B41" s="46"/>
-      <c r="C41" s="47"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="27"/>
       <c r="D41" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F41" s="30" t="s">
+      <c r="F41" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="G41" s="31"/>
+      <c r="G41" s="36"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B42" s="46"/>
-      <c r="C42" s="47"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="27"/>
       <c r="D42" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F42" s="30" t="s">
+      <c r="F42" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="G42" s="31"/>
+      <c r="G42" s="36"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B43" s="46"/>
-      <c r="C43" s="47"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="27"/>
       <c r="D43" s="14" t="s">
         <v>133</v>
       </c>
       <c r="E43" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="F43" s="28" t="s">
+      <c r="F43" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="G43" s="29"/>
+      <c r="G43" s="31"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B44" s="44" t="s">
+      <c r="B44" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="45"/>
+      <c r="C44" s="25"/>
       <c r="D44" s="32"/>
       <c r="E44" s="33"/>
       <c r="F44" s="33"/>
       <c r="G44" s="34"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B45" s="46"/>
-      <c r="C45" s="47"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="27"/>
       <c r="D45" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="F45" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="F45" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="G45" s="31"/>
+      <c r="G45" s="36"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B46" s="46"/>
-      <c r="C46" s="47"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="27"/>
       <c r="D46" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="F46" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="F46" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="G46" s="31"/>
+      <c r="G46" s="36"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B47" s="46"/>
-      <c r="C47" s="47"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="27"/>
       <c r="D47" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F47" s="30" t="s">
+      <c r="F47" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="G47" s="31"/>
+      <c r="G47" s="36"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B48" s="46"/>
-      <c r="C48" s="47"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="27"/>
       <c r="D48" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F48" s="30" t="s">
+      <c r="F48" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="G48" s="31"/>
+      <c r="G48" s="36"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B49" s="46"/>
-      <c r="C49" s="47"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="27"/>
       <c r="D49" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F49" s="30" t="s">
+      <c r="F49" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="G49" s="31"/>
+      <c r="G49" s="36"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B50" s="46"/>
-      <c r="C50" s="47"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="27"/>
       <c r="D50" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F50" s="30" t="s">
+      <c r="F50" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="G50" s="31"/>
+      <c r="G50" s="36"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B51" s="46"/>
-      <c r="C51" s="47"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="27"/>
       <c r="D51" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F51" s="30" t="s">
+      <c r="F51" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="G51" s="31"/>
+      <c r="G51" s="36"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B52" s="46"/>
-      <c r="C52" s="47"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="27"/>
       <c r="D52" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F52" s="30" t="s">
+      <c r="F52" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="G52" s="31"/>
+      <c r="G52" s="36"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B53" s="46"/>
-      <c r="C53" s="47"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="27"/>
       <c r="D53" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F53" s="30" t="s">
+      <c r="F53" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="G53" s="31"/>
+      <c r="G53" s="36"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B54" s="46"/>
-      <c r="C54" s="47"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="27"/>
       <c r="D54" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F54" s="30" t="s">
+      <c r="F54" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="G54" s="31"/>
+      <c r="G54" s="36"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B55" s="46"/>
-      <c r="C55" s="47"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="27"/>
       <c r="D55" s="14" t="s">
         <v>139</v>
       </c>
@@ -2615,306 +2632,306 @@
       <c r="G55" s="11"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B56" s="46"/>
-      <c r="C56" s="47"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="27"/>
       <c r="D56" s="14" t="s">
         <v>137</v>
       </c>
       <c r="E56" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="F56" s="28" t="s">
+      <c r="F56" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="G56" s="29"/>
+      <c r="G56" s="31"/>
     </row>
     <row r="57" spans="2:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="46"/>
-      <c r="C57" s="47"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="27"/>
       <c r="D57" s="9" t="s">
         <v>217</v>
       </c>
       <c r="E57" s="10"/>
-      <c r="F57" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="G57" s="27"/>
+      <c r="F57" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="G57" s="50"/>
       <c r="H57" s="20" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="58" spans="2:8" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="46"/>
-      <c r="C58" s="47"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="27"/>
       <c r="D58" s="9" t="s">
         <v>218</v>
       </c>
       <c r="E58" s="10"/>
-      <c r="F58" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="G58" s="27"/>
+      <c r="F58" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="G58" s="50"/>
       <c r="H58" s="20" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="46"/>
-      <c r="C59" s="47"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="27"/>
       <c r="D59" s="9" t="s">
         <v>163</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="F59" s="24" t="s">
-        <v>231</v>
-      </c>
-      <c r="G59" s="25"/>
+      <c r="F59" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="G59" s="40"/>
       <c r="H59" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="46"/>
-      <c r="C60" s="47"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="27"/>
       <c r="D60" s="9" t="s">
         <v>164</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="F60" s="24" t="s">
+      <c r="F60" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="G60" s="25"/>
+      <c r="G60" s="40"/>
       <c r="H60" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B61" s="46"/>
-      <c r="C61" s="47"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="27"/>
       <c r="D61" s="9" t="s">
         <v>165</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="F61" s="24" t="s">
+      <c r="F61" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="G61" s="25"/>
+      <c r="G61" s="40"/>
       <c r="H61" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="46"/>
-      <c r="C62" s="47"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="27"/>
       <c r="D62" s="9" t="s">
         <v>166</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="F62" s="24" t="s">
+      <c r="F62" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="G62" s="25"/>
+      <c r="G62" s="40"/>
       <c r="H62" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B63" s="46"/>
-      <c r="C63" s="47"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="27"/>
       <c r="D63" s="9" t="s">
         <v>167</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="F63" s="24" t="s">
+      <c r="F63" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="G63" s="25"/>
+      <c r="G63" s="40"/>
       <c r="H63" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B64" s="46"/>
-      <c r="C64" s="47"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="27"/>
       <c r="D64" s="9" t="s">
         <v>168</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="F64" s="24" t="s">
+      <c r="F64" s="39" t="s">
         <v>209</v>
       </c>
-      <c r="G64" s="25"/>
+      <c r="G64" s="40"/>
       <c r="H64" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B65" s="46"/>
-      <c r="C65" s="47"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="27"/>
       <c r="D65" s="9" t="s">
         <v>169</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="F65" s="24" t="s">
+      <c r="F65" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="G65" s="25"/>
+      <c r="G65" s="40"/>
       <c r="H65" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B66" s="46"/>
-      <c r="C66" s="47"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="27"/>
       <c r="D66" s="9" t="s">
         <v>170</v>
       </c>
       <c r="E66" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="F66" s="24" t="s">
+      <c r="F66" s="39" t="s">
         <v>211</v>
       </c>
-      <c r="G66" s="25"/>
+      <c r="G66" s="40"/>
       <c r="H66" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B67" s="46"/>
-      <c r="C67" s="47"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="27"/>
       <c r="D67" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="F67" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="E67" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="F67" s="18" t="s">
-        <v>233</v>
-      </c>
       <c r="G67" s="19"/>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B68" s="46"/>
-      <c r="C68" s="47"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="27"/>
       <c r="D68" s="9" t="s">
         <v>171</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="F68" s="24" t="s">
+      <c r="F68" s="39" t="s">
         <v>212</v>
       </c>
-      <c r="G68" s="25"/>
+      <c r="G68" s="40"/>
       <c r="H68" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B69" s="46"/>
-      <c r="C69" s="47"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="27"/>
       <c r="D69" s="9" t="s">
         <v>172</v>
       </c>
       <c r="E69" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="F69" s="24" t="s">
+      <c r="F69" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="G69" s="25"/>
+      <c r="G69" s="40"/>
       <c r="H69" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B70" s="46"/>
-      <c r="C70" s="47"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="27"/>
       <c r="D70" s="9" t="s">
         <v>173</v>
       </c>
       <c r="E70" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="F70" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="G70" s="25"/>
+      <c r="F70" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="G70" s="40"/>
       <c r="H70" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B71" s="46"/>
-      <c r="C71" s="47"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="27"/>
       <c r="D71" s="9" t="s">
         <v>174</v>
       </c>
       <c r="E71" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="F71" s="24" t="s">
+      <c r="F71" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="G71" s="25"/>
+      <c r="G71" s="40"/>
       <c r="H71" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B72" s="46"/>
-      <c r="C72" s="47"/>
+      <c r="B72" s="26"/>
+      <c r="C72" s="27"/>
       <c r="D72" s="9" t="s">
         <v>175</v>
       </c>
       <c r="E72" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="F72" s="24" t="s">
+      <c r="F72" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="G72" s="25"/>
+      <c r="G72" s="40"/>
       <c r="H72" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B73" s="48"/>
-      <c r="C73" s="49"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="29"/>
       <c r="D73" s="9" t="s">
         <v>176</v>
       </c>
       <c r="E73" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="F73" s="24" t="s">
+      <c r="F73" s="39" t="s">
         <v>216</v>
       </c>
-      <c r="G73" s="25"/>
+      <c r="G73" s="40"/>
       <c r="H73" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B74" s="44" t="s">
+      <c r="B74" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="C74" s="45"/>
+      <c r="C74" s="25"/>
       <c r="D74" s="32"/>
       <c r="E74" s="34"/>
       <c r="F74" s="1" t="s">
@@ -2925,13 +2942,13 @@
       </c>
     </row>
     <row r="75" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B75" s="46"/>
-      <c r="C75" s="47"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="27"/>
       <c r="D75" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F75" s="7" t="s">
         <v>97</v>
@@ -2941,8 +2958,8 @@
       </c>
     </row>
     <row r="76" spans="2:8" ht="132" x14ac:dyDescent="0.3">
-      <c r="B76" s="46"/>
-      <c r="C76" s="47"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="27"/>
       <c r="D76" s="4" t="s">
         <v>142</v>
       </c>
@@ -2957,8 +2974,8 @@
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B77" s="46"/>
-      <c r="C77" s="47"/>
+      <c r="B77" s="26"/>
+      <c r="C77" s="27"/>
       <c r="D77" s="14" t="s">
         <v>143</v>
       </c>
@@ -2967,12 +2984,12 @@
       </c>
       <c r="F77" s="13"/>
       <c r="G77" s="17" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B78" s="46"/>
-      <c r="C78" s="47"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="27"/>
       <c r="D78" s="14" t="s">
         <v>145</v>
       </c>
@@ -2985,13 +3002,13 @@
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B79" s="46"/>
-      <c r="C79" s="47"/>
+      <c r="B79" s="26"/>
+      <c r="C79" s="27"/>
       <c r="D79" s="14" t="s">
         <v>148</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="F79" s="13"/>
       <c r="G79" s="17" t="s">
@@ -2999,8 +3016,8 @@
       </c>
     </row>
     <row r="80" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B80" s="46"/>
-      <c r="C80" s="47"/>
+      <c r="B80" s="26"/>
+      <c r="C80" s="27"/>
       <c r="D80" s="4" t="s">
         <v>45</v>
       </c>
@@ -3015,8 +3032,8 @@
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B81" s="46"/>
-      <c r="C81" s="47"/>
+      <c r="B81" s="26"/>
+      <c r="C81" s="27"/>
       <c r="D81" s="4" t="s">
         <v>46</v>
       </c>
@@ -3031,8 +3048,8 @@
       </c>
     </row>
     <row r="82" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B82" s="48"/>
-      <c r="C82" s="49"/>
+      <c r="B82" s="28"/>
+      <c r="C82" s="29"/>
       <c r="D82" s="4" t="s">
         <v>47</v>
       </c>
@@ -3047,139 +3064,219 @@
       </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B83" s="44" t="s">
+      <c r="B83" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="C83" s="45"/>
+      <c r="C83" s="25"/>
       <c r="D83" s="32"/>
       <c r="E83" s="33"/>
       <c r="F83" s="33"/>
       <c r="G83" s="34"/>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B84" s="46"/>
-      <c r="C84" s="47"/>
+      <c r="B84" s="26"/>
+      <c r="C84" s="27"/>
       <c r="D84" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F84" s="30" t="s">
+      <c r="F84" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="G84" s="31"/>
+      <c r="G84" s="36"/>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B85" s="46"/>
-      <c r="C85" s="47"/>
+      <c r="B85" s="26"/>
+      <c r="C85" s="27"/>
       <c r="D85" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F85" s="30" t="s">
+      <c r="F85" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="G85" s="31"/>
+      <c r="G85" s="36"/>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B86" s="46"/>
-      <c r="C86" s="47"/>
+      <c r="B86" s="26"/>
+      <c r="C86" s="27"/>
       <c r="D86" s="4" t="s">
         <v>51</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F86" s="42" t="s">
+      <c r="F86" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="G86" s="43"/>
+      <c r="G86" s="38"/>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B87" s="46"/>
-      <c r="C87" s="47"/>
+      <c r="B87" s="26"/>
+      <c r="C87" s="27"/>
       <c r="D87" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F87" s="30" t="s">
+      <c r="F87" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="G87" s="31"/>
+      <c r="G87" s="36"/>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B88" s="46"/>
-      <c r="C88" s="47"/>
+      <c r="B88" s="26"/>
+      <c r="C88" s="27"/>
       <c r="D88" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F88" s="42" t="s">
+      <c r="F88" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="G88" s="43"/>
+      <c r="G88" s="38"/>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B89" s="48"/>
-      <c r="C89" s="49"/>
+      <c r="B89" s="28"/>
+      <c r="C89" s="29"/>
       <c r="D89" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F89" s="30" t="s">
+      <c r="F89" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="G89" s="31"/>
+      <c r="G89" s="36"/>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B90" s="50" t="s">
+      <c r="B90" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="C90" s="45"/>
+      <c r="C90" s="25"/>
       <c r="D90" s="32"/>
       <c r="E90" s="33"/>
       <c r="F90" s="33"/>
       <c r="G90" s="34"/>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B91" s="46"/>
-      <c r="C91" s="47"/>
+      <c r="B91" s="26"/>
+      <c r="C91" s="27"/>
       <c r="D91" s="14" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="E91" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="F91" s="28" t="s">
+      <c r="F91" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="G91" s="29"/>
+      <c r="G91" s="31"/>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B92" s="48"/>
-      <c r="C92" s="49"/>
+      <c r="B92" s="28"/>
+      <c r="C92" s="29"/>
       <c r="D92" s="14" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E92" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="F92" s="28" t="s">
+      <c r="F92" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="G92" s="29"/>
+      <c r="G92" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="96">
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="B3:B33"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C8:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D83:G83"/>
+    <mergeCell ref="B34:C38"/>
+    <mergeCell ref="B39:C43"/>
+    <mergeCell ref="B44:C73"/>
+    <mergeCell ref="B74:C82"/>
+    <mergeCell ref="B83:C89"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
     <mergeCell ref="B90:C92"/>
     <mergeCell ref="F91:G91"/>
     <mergeCell ref="F92:G92"/>
@@ -3196,86 +3293,6 @@
     <mergeCell ref="F73:G73"/>
     <mergeCell ref="F84:G84"/>
     <mergeCell ref="F85:G85"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D83:G83"/>
-    <mergeCell ref="B34:C38"/>
-    <mergeCell ref="B39:C43"/>
-    <mergeCell ref="B44:C73"/>
-    <mergeCell ref="B74:C82"/>
-    <mergeCell ref="B83:C89"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="B3:B33"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C8:C15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F68:G68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3287,8 +3304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3304,18 +3321,18 @@
         <v>223</v>
       </c>
       <c r="E1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F2" t="s">
         <v>225</v>
@@ -3323,10 +3340,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>252</v>
+        <v>290</v>
       </c>
       <c r="F3" t="s">
         <v>225</v>
@@ -3334,7 +3351,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C4" t="s">
         <v>224</v>
@@ -3345,10 +3362,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F5" t="s">
         <v>225</v>
@@ -3356,29 +3373,29 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F8" t="s">
         <v>225</v>
@@ -3386,10 +3403,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>226</v>
+        <v>291</v>
       </c>
       <c r="F9" t="s">
         <v>225</v>
@@ -3397,13 +3414,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>254</v>
+        <v>292</v>
       </c>
       <c r="E10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F10" t="s">
         <v>225</v>
@@ -3411,13 +3428,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F11" t="s">
         <v>225</v>
@@ -3425,13 +3442,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="E12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F12" t="s">
         <v>225</v>
@@ -3439,13 +3456,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>257</v>
+        <v>294</v>
       </c>
       <c r="E13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F13" t="s">
         <v>225</v>
@@ -3453,13 +3470,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>258</v>
+        <v>295</v>
       </c>
       <c r="E14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F14" t="s">
         <v>225</v>
@@ -3467,13 +3484,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="E15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F15" t="s">
         <v>225</v>
@@ -3481,13 +3498,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F16" t="s">
         <v>225</v>
@@ -3495,13 +3512,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="E17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F17" t="s">
         <v>225</v>
@@ -3509,13 +3526,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F18" t="s">
         <v>225</v>
@@ -3523,10 +3540,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F19" t="s">
         <v>225</v>
@@ -3534,10 +3551,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F20" t="s">
         <v>225</v>
@@ -3545,10 +3562,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F21" t="s">
         <v>225</v>
@@ -3556,10 +3573,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F22" t="s">
         <v>225</v>
@@ -3567,29 +3584,29 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C23" t="s">
+        <v>247</v>
+      </c>
+      <c r="E23" t="s">
         <v>248</v>
-      </c>
-      <c r="E23" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C25" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/com.js.ens.leveller/ver3_변수정의.xlsx
+++ b/com.js.ens.leveller/ver3_변수정의.xlsx
@@ -13,14 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="변수선언" sheetId="1" r:id="rId1"/>
-    <sheet name="1_Flat" sheetId="2" r:id="rId2"/>
+    <sheet name="proc 생성" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="311">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -485,22 +485,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>%RollCrown%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Mill Stiffness</t>
   </si>
   <si>
     <t>%MillStiffness%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Roll Crown</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>textRollCrown</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -834,34 +822,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>m1_flat.proc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/1_Flat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mat05_mass_density.proc</t>
   </si>
   <si>
     <t>a4_contact.proc</t>
   </si>
   <si>
-    <t>%UpperRollDataField%
-%UR_n_gap%
-%UR_n__friction%
-%UR_n_diameter%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%LowerRollDataField%
-%LR_n_gap%
-%LR_n__friction%
-%LR_n_diameter%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>%UpperEntryRollGapMovement%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -878,18 +844,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>m1_a_flat.proc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mp01_define_post_set_flat.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mp01_redefine_post_set_flat.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -941,10 +895,6 @@
     <t>ap01_add_hdroll.py</t>
   </si>
   <si>
-    <t>main_flat.proc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>a2_roll_gen.proc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1138,7 +1088,86 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>%NumberOfElements%     ??</t>
+    <t>Upper Roll Crown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lower Roll Crown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>textUpperRollCrown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>textLowerRollCrown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%UpperRollCrown%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%LowerRollCrown%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_r_crown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l_r_crown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">%UpperRollDataField%
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">%LowerRollDataField%
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ap03_change_roller_table.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ap04_define_roll_crown.py</t>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000_post_deformed.f</t>
+  </si>
+  <si>
+    <t>main_xxxx.proc</t>
+  </si>
+  <si>
+    <t>m1_xxxx.proc</t>
+  </si>
+  <si>
+    <t>m1_a_xxxx.proc</t>
+  </si>
+  <si>
+    <t>mp01_define_post_set_xxxx.py</t>
+  </si>
+  <si>
+    <t>mp01_redefine_post_set_xxxx.py</t>
+  </si>
+  <si>
+    <t>/n_xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1146,7 +1175,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1211,6 +1240,14 @@
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -1436,7 +1473,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1470,124 +1507,127 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1894,10 +1934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I92"/>
+  <dimension ref="B2:I93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39:G39"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38:G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1912,35 +1952,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="37"/>
       <c r="D2" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="G2" s="43"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="34"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="33"/>
       <c r="I3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="47"/>
-      <c r="C4" s="46" t="s">
+      <c r="B4" s="39"/>
+      <c r="C4" s="38" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -1949,1283 +1989,1325 @@
       <c r="E4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="36"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="30"/>
       <c r="I4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="G5" s="36"/>
+      <c r="G5" s="30"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="36"/>
+      <c r="G6" s="30"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="47"/>
-      <c r="C7" s="48"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="40"/>
       <c r="D7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="G7" s="36"/>
+      <c r="G7" s="30"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="47"/>
-      <c r="C8" s="46" t="s">
+      <c r="B8" s="39"/>
+      <c r="C8" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="34"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="F9" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="F9" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="G9" s="36"/>
+      <c r="G9" s="30"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="F10" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="F10" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="G10" s="36"/>
+      <c r="G10" s="30"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
       <c r="D11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="35" t="s">
+      <c r="F11" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="G11" s="36"/>
+      <c r="G11" s="30"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="F12" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="G12" s="36"/>
+        <v>253</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="G12" s="30"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
       <c r="D13" s="4" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="F13" s="35" t="s">
-        <v>270</v>
-      </c>
-      <c r="G13" s="36"/>
+        <v>260</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="G13" s="30"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="4" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>269</v>
-      </c>
-      <c r="G14" s="36"/>
+        <v>261</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="G14" s="30"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="47"/>
-      <c r="C15" s="48"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="40"/>
       <c r="D15" s="4"/>
       <c r="E15" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="F15" s="35" t="s">
-        <v>268</v>
-      </c>
-      <c r="G15" s="36"/>
+        <v>256</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="G15" s="30"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="47"/>
-      <c r="C16" s="46" t="s">
+      <c r="B16" s="39"/>
+      <c r="C16" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="34"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="33"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
       <c r="D17" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="F17" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="F17" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="G17" s="36"/>
+      <c r="G17" s="30"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="47"/>
-      <c r="C18" s="48"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="40"/>
       <c r="D18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="F18" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="F18" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="G18" s="36"/>
+      <c r="G18" s="30"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="47"/>
-      <c r="C19" s="46" t="s">
+      <c r="B19" s="39"/>
+      <c r="C19" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="34"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="33"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="47"/>
-      <c r="C20" s="48"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="40"/>
       <c r="D20" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="F20" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="F20" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="G20" s="36"/>
+      <c r="G20" s="30"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="47"/>
-      <c r="C21" s="46" t="s">
+      <c r="B21" s="39"/>
+      <c r="C21" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="34"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="33"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
       <c r="D22" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="F22" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="F22" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="G22" s="36"/>
+      <c r="G22" s="30"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="47"/>
-      <c r="C23" s="48"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="40"/>
       <c r="D23" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="F23" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="F23" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="G23" s="36"/>
+      <c r="G23" s="30"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="47"/>
-      <c r="C24" s="46" t="s">
+      <c r="B24" s="39"/>
+      <c r="C24" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="34"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="33"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
       <c r="D25" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="F25" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="F25" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="G25" s="36"/>
+      <c r="G25" s="30"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
       <c r="D26" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F26" s="35" t="s">
+      <c r="F26" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="G26" s="36"/>
+      <c r="G26" s="30"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
       <c r="D27" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F27" s="35" t="s">
+      <c r="F27" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="G27" s="36"/>
+      <c r="G27" s="30"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="47"/>
-      <c r="C28" s="48"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="40"/>
       <c r="D28" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F28" s="35" t="s">
+      <c r="F28" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="G28" s="36"/>
+      <c r="G28" s="30"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="47"/>
-      <c r="C29" s="46" t="s">
+      <c r="B29" s="39"/>
+      <c r="C29" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="32"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="34"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="33"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
       <c r="D30" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="F30" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="F30" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="G30" s="36"/>
+      <c r="G30" s="30"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
       <c r="D31" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F31" s="35" t="s">
+      <c r="F31" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="G31" s="36"/>
+      <c r="G31" s="30"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="47"/>
-      <c r="C32" s="47"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
       <c r="D32" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F32" s="35" t="s">
+      <c r="F32" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="G32" s="36"/>
+      <c r="G32" s="30"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
       <c r="D33" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F33" s="35" t="s">
+      <c r="F33" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="G33" s="36"/>
+      <c r="G33" s="30"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="34"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="33"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="26"/>
-      <c r="C35" s="27"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="46"/>
       <c r="D35" s="4" t="s">
         <v>103</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F35" s="35" t="s">
-        <v>297</v>
-      </c>
-      <c r="G35" s="36"/>
+      <c r="F35" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="G35" s="30"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="26"/>
-      <c r="C36" s="27"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="46"/>
       <c r="D36" s="4" t="s">
         <v>110</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F36" s="35" t="s">
-        <v>298</v>
-      </c>
-      <c r="G36" s="36"/>
+      <c r="F36" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="G36" s="30"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="26"/>
-      <c r="C37" s="27"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="46"/>
       <c r="D37" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F37" s="35" t="s">
-        <v>299</v>
-      </c>
-      <c r="G37" s="36"/>
+      <c r="F37" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="G37" s="30"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="28"/>
-      <c r="C38" s="29"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="48"/>
       <c r="D38" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F38" s="35" t="s">
-        <v>300</v>
-      </c>
-      <c r="G38" s="36"/>
+      <c r="F38" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="G38" s="30"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B39" s="41" t="s">
+      <c r="B39" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="C39" s="25"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="34"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="33"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B40" s="26"/>
-      <c r="C40" s="27"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="46"/>
       <c r="D40" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="F40" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="G40" s="36"/>
+        <v>269</v>
+      </c>
+      <c r="F40" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="G40" s="30"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B41" s="26"/>
-      <c r="C41" s="27"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="46"/>
       <c r="D41" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F41" s="35" t="s">
+      <c r="F41" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="G41" s="36"/>
+      <c r="G41" s="30"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B42" s="26"/>
-      <c r="C42" s="27"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="46"/>
       <c r="D42" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F42" s="35" t="s">
+      <c r="F42" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="G42" s="36"/>
+      <c r="G42" s="30"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B43" s="26"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="14" t="s">
+      <c r="B43" s="45"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="E43" s="15" t="s">
+      <c r="E43" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="F43" s="30" t="s">
+      <c r="F43" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="G43" s="31"/>
+      <c r="G43" s="28"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B44" s="41" t="s">
+      <c r="B44" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="25"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="34"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="33"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B45" s="26"/>
-      <c r="C45" s="27"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="46"/>
       <c r="D45" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="F45" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="F45" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="G45" s="36"/>
+      <c r="G45" s="30"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B46" s="26"/>
-      <c r="C46" s="27"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="46"/>
       <c r="D46" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="F46" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="F46" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="G46" s="36"/>
+      <c r="G46" s="30"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B47" s="26"/>
-      <c r="C47" s="27"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="46"/>
       <c r="D47" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F47" s="35" t="s">
+      <c r="F47" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="G47" s="36"/>
+      <c r="G47" s="30"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B48" s="26"/>
-      <c r="C48" s="27"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="46"/>
       <c r="D48" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F48" s="35" t="s">
+      <c r="F48" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="G48" s="36"/>
+      <c r="G48" s="30"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B49" s="26"/>
-      <c r="C49" s="27"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="46"/>
       <c r="D49" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F49" s="35" t="s">
+      <c r="F49" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="G49" s="36"/>
+      <c r="G49" s="30"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B50" s="26"/>
-      <c r="C50" s="27"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="46"/>
       <c r="D50" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F50" s="35" t="s">
+      <c r="F50" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="G50" s="36"/>
+      <c r="G50" s="30"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B51" s="26"/>
-      <c r="C51" s="27"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="46"/>
       <c r="D51" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F51" s="35" t="s">
+      <c r="F51" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="G51" s="36"/>
+      <c r="G51" s="30"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B52" s="26"/>
-      <c r="C52" s="27"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="46"/>
       <c r="D52" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F52" s="35" t="s">
+      <c r="F52" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="G52" s="36"/>
+      <c r="G52" s="30"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B53" s="26"/>
-      <c r="C53" s="27"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="46"/>
       <c r="D53" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F53" s="35" t="s">
+      <c r="F53" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="G53" s="36"/>
+      <c r="G53" s="30"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B54" s="26"/>
-      <c r="C54" s="27"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="46"/>
       <c r="D54" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F54" s="35" t="s">
+      <c r="F54" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="G54" s="36"/>
+      <c r="G54" s="30"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B55" s="26"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="14" t="s">
+      <c r="B55" s="45"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="F55" s="50" t="s">
+        <v>293</v>
+      </c>
+      <c r="G55" s="51"/>
+      <c r="H55" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B56" s="45"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="F56" s="50" t="s">
+        <v>294</v>
+      </c>
+      <c r="G56" s="22"/>
+      <c r="H56" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B57" s="45"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="F57" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="G57" s="28"/>
+    </row>
+    <row r="58" spans="2:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="45"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="E58" s="10"/>
+      <c r="F58" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="G58" s="26"/>
+      <c r="H58" s="18" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="45"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="E59" s="10"/>
+      <c r="F59" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="G59" s="26"/>
+      <c r="H59" s="18" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B60" s="45"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="F60" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="G60" s="24"/>
+      <c r="H60" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B61" s="45"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="F61" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="G61" s="24"/>
+      <c r="H61" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B62" s="45"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="F62" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G62" s="24"/>
+      <c r="H62" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B63" s="45"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F63" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="G63" s="24"/>
+      <c r="H63" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B64" s="45"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F64" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="G64" s="24"/>
+      <c r="H64" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B65" s="45"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F65" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="G65" s="24"/>
+      <c r="H65" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B66" s="45"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="F66" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="G66" s="24"/>
+      <c r="H66" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B67" s="45"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="F67" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="G67" s="24"/>
+      <c r="H67" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B68" s="45"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="G68" s="17"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B69" s="45"/>
+      <c r="C69" s="46"/>
+      <c r="D69" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F69" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="G69" s="24"/>
+      <c r="H69" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B70" s="45"/>
+      <c r="C70" s="46"/>
+      <c r="D70" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="F70" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="G70" s="24"/>
+      <c r="H70" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B71" s="45"/>
+      <c r="C71" s="46"/>
+      <c r="D71" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F71" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="G71" s="24"/>
+      <c r="H71" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B72" s="45"/>
+      <c r="C72" s="46"/>
+      <c r="D72" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F72" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="G72" s="24"/>
+      <c r="H72" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B73" s="45"/>
+      <c r="C73" s="46"/>
+      <c r="D73" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="F73" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="G73" s="24"/>
+      <c r="H73" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B74" s="47"/>
+      <c r="C74" s="48"/>
+      <c r="D74" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="F74" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="G74" s="24"/>
+      <c r="H74" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B75" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C75" s="44"/>
+      <c r="D75" s="31"/>
+      <c r="E75" s="33"/>
+      <c r="F75" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="B76" s="45"/>
+      <c r="C76" s="46"/>
+      <c r="D76" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" ht="132" x14ac:dyDescent="0.3">
+      <c r="B77" s="45"/>
+      <c r="C77" s="46"/>
+      <c r="D77" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E55" s="15" t="s">
+      <c r="E77" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B78" s="45"/>
+      <c r="C78" s="46"/>
+      <c r="D78" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="F55" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="G55" s="11"/>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B56" s="26"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="E56" s="15" t="s">
+      <c r="E78" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="F56" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="G56" s="31"/>
-    </row>
-    <row r="57" spans="2:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="26"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="E57" s="10"/>
-      <c r="F57" s="49" t="s">
-        <v>228</v>
-      </c>
-      <c r="G57" s="50"/>
-      <c r="H57" s="20" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="26"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="E58" s="10"/>
-      <c r="F58" s="49" t="s">
-        <v>229</v>
-      </c>
-      <c r="G58" s="50"/>
-      <c r="H58" s="20" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="26"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="F59" s="39" t="s">
-        <v>230</v>
-      </c>
-      <c r="G59" s="40"/>
-      <c r="H59" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="26"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="F60" s="39" t="s">
-        <v>205</v>
-      </c>
-      <c r="G60" s="40"/>
-      <c r="H60" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B61" s="26"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="F61" s="39" t="s">
-        <v>206</v>
-      </c>
-      <c r="G61" s="40"/>
-      <c r="H61" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="26"/>
-      <c r="C62" s="27"/>
-      <c r="D62" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="F62" s="39" t="s">
-        <v>207</v>
-      </c>
-      <c r="G62" s="40"/>
-      <c r="H62" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B63" s="26"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="F63" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="G63" s="40"/>
-      <c r="H63" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B64" s="26"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F64" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="G64" s="40"/>
-      <c r="H64" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B65" s="26"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="F65" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="G65" s="40"/>
-      <c r="H65" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B66" s="26"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F66" s="39" t="s">
-        <v>211</v>
-      </c>
-      <c r="G66" s="40"/>
-      <c r="H66" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B67" s="26"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="E67" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="F67" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="G67" s="19"/>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B68" s="26"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="E68" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="F68" s="39" t="s">
-        <v>212</v>
-      </c>
-      <c r="G68" s="40"/>
-      <c r="H68" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B69" s="26"/>
-      <c r="C69" s="27"/>
-      <c r="D69" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="E69" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="F69" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="G69" s="40"/>
-      <c r="H69" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B70" s="26"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="F70" s="39" t="s">
-        <v>233</v>
-      </c>
-      <c r="G70" s="40"/>
-      <c r="H70" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B71" s="26"/>
-      <c r="C71" s="27"/>
-      <c r="D71" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E71" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="F71" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="G71" s="40"/>
-      <c r="H71" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B72" s="26"/>
-      <c r="C72" s="27"/>
-      <c r="D72" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="E72" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="F72" s="39" t="s">
-        <v>215</v>
-      </c>
-      <c r="G72" s="40"/>
-      <c r="H72" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B73" s="28"/>
-      <c r="C73" s="29"/>
-      <c r="D73" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="E73" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="F73" s="39" t="s">
-        <v>216</v>
-      </c>
-      <c r="G73" s="40"/>
-      <c r="H73" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B74" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="C74" s="25"/>
-      <c r="D74" s="32"/>
-      <c r="E74" s="34"/>
-      <c r="F74" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B75" s="26"/>
-      <c r="C75" s="27"/>
-      <c r="D75" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="F75" s="7" t="s">
+      <c r="F78" s="12"/>
+      <c r="G78" s="15" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B79" s="45"/>
+      <c r="C79" s="46"/>
+      <c r="D79" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F79" s="12"/>
+      <c r="G79" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B80" s="45"/>
+      <c r="C80" s="46"/>
+      <c r="D80" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E80" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="F80" s="12"/>
+      <c r="G80" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B81" s="45"/>
+      <c r="C81" s="46"/>
+      <c r="D81" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F81" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" ht="132" x14ac:dyDescent="0.3">
-      <c r="B76" s="26"/>
-      <c r="C76" s="27"/>
-      <c r="D76" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F76" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="G76" s="12" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B77" s="26"/>
-      <c r="C77" s="27"/>
-      <c r="D77" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="E77" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="F77" s="13"/>
-      <c r="G77" s="17" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B78" s="26"/>
-      <c r="C78" s="27"/>
-      <c r="D78" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="E78" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="F78" s="13"/>
-      <c r="G78" s="17" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B79" s="26"/>
-      <c r="C79" s="27"/>
-      <c r="D79" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="E79" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="F79" s="13"/>
-      <c r="G79" s="17" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B80" s="26"/>
-      <c r="C80" s="27"/>
-      <c r="D80" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F80" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G80" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B81" s="26"/>
-      <c r="C81" s="27"/>
-      <c r="D81" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F81" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="G81" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="82" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B82" s="28"/>
-      <c r="C82" s="29"/>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B82" s="45"/>
+      <c r="C82" s="46"/>
       <c r="D82" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B83" s="47"/>
+      <c r="C83" s="48"/>
+      <c r="D83" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E82" s="5" t="s">
+      <c r="E83" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F82" s="7" t="s">
+      <c r="F83" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G82" s="6" t="s">
+      <c r="G83" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B84" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C84" s="44"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="32"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="33"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B85" s="45"/>
+      <c r="C85" s="46"/>
+      <c r="D85" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F85" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="G85" s="30"/>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B86" s="45"/>
+      <c r="C86" s="46"/>
+      <c r="D86" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F86" s="29" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B83" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="C83" s="25"/>
-      <c r="D83" s="32"/>
-      <c r="E83" s="33"/>
-      <c r="F83" s="33"/>
-      <c r="G83" s="34"/>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B84" s="26"/>
-      <c r="C84" s="27"/>
-      <c r="D84" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F84" s="35" t="s">
+      <c r="G86" s="30"/>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B87" s="45"/>
+      <c r="C87" s="46"/>
+      <c r="D87" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F87" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="G87" s="42"/>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B88" s="45"/>
+      <c r="C88" s="46"/>
+      <c r="D88" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F88" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="G88" s="30"/>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B89" s="45"/>
+      <c r="C89" s="46"/>
+      <c r="D89" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F89" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="G89" s="42"/>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B90" s="47"/>
+      <c r="C90" s="48"/>
+      <c r="D90" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F90" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="G90" s="30"/>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B91" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="C91" s="44"/>
+      <c r="D91" s="31"/>
+      <c r="E91" s="32"/>
+      <c r="F91" s="32"/>
+      <c r="G91" s="33"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B92" s="45"/>
+      <c r="C92" s="46"/>
+      <c r="D92" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="E92" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="G84" s="36"/>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B85" s="26"/>
-      <c r="C85" s="27"/>
-      <c r="D85" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F85" s="35" t="s">
+      <c r="F92" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="G85" s="36"/>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B86" s="26"/>
-      <c r="C86" s="27"/>
-      <c r="D86" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F86" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="G86" s="38"/>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B87" s="26"/>
-      <c r="C87" s="27"/>
-      <c r="D87" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F87" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="G87" s="36"/>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B88" s="26"/>
-      <c r="C88" s="27"/>
-      <c r="D88" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F88" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="G88" s="38"/>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B89" s="28"/>
-      <c r="C89" s="29"/>
-      <c r="D89" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F89" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="G89" s="36"/>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B90" s="24" t="s">
+      <c r="G92" s="28"/>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B93" s="47"/>
+      <c r="C93" s="48"/>
+      <c r="D93" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="E93" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="C90" s="25"/>
-      <c r="D90" s="32"/>
-      <c r="E90" s="33"/>
-      <c r="F90" s="33"/>
-      <c r="G90" s="34"/>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B91" s="26"/>
-      <c r="C91" s="27"/>
-      <c r="D91" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="E91" s="15" t="s">
+      <c r="F93" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="F91" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="G91" s="31"/>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B92" s="28"/>
-      <c r="C92" s="29"/>
-      <c r="D92" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="E92" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="F92" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="G92" s="31"/>
+      <c r="G93" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="B91:C93"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="D91:G91"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D84:G84"/>
+    <mergeCell ref="B34:C38"/>
+    <mergeCell ref="B39:C43"/>
+    <mergeCell ref="B44:C74"/>
+    <mergeCell ref="B75:C83"/>
+    <mergeCell ref="B84:C90"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
     <mergeCell ref="F54:G54"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="B2:C2"/>
@@ -3242,57 +3324,35 @@
     <mergeCell ref="C29:C33"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D83:G83"/>
-    <mergeCell ref="B34:C38"/>
-    <mergeCell ref="B39:C43"/>
-    <mergeCell ref="B44:C73"/>
-    <mergeCell ref="B74:C82"/>
-    <mergeCell ref="B83:C89"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="B90:C92"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="D90:G90"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="F72:G72"/>
     <mergeCell ref="F73:G73"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F69:G69"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3302,311 +3362,347 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="14.875" style="21" customWidth="1"/>
+    <col min="1" max="2" width="14.875" style="19" customWidth="1"/>
     <col min="3" max="3" width="26.25" customWidth="1"/>
     <col min="4" max="4" width="35.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>223</v>
+      <c r="A1" s="19" t="s">
+        <v>220</v>
       </c>
       <c r="E1" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="F1" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>250</v>
+      <c r="A2" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>303</v>
       </c>
       <c r="F2" t="s">
-        <v>225</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>290</v>
+      <c r="A3" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>279</v>
       </c>
       <c r="F3" t="s">
-        <v>225</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="C4" t="s">
+        <v>304</v>
+      </c>
+      <c r="F4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" t="s">
+        <v>305</v>
+      </c>
+      <c r="F5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="D6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="D7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="E8" t="s">
+        <v>234</v>
+      </c>
+      <c r="F8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="F9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="E10" t="s">
+        <v>229</v>
+      </c>
+      <c r="F10" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="E11" t="s">
+        <v>230</v>
+      </c>
+      <c r="F11" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="E12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F12" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="E13" t="s">
+        <v>230</v>
+      </c>
+      <c r="F13" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="E14" t="s">
+        <v>232</v>
+      </c>
+      <c r="F14" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="E15" t="s">
+        <v>230</v>
+      </c>
+      <c r="F15" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="E16" t="s">
+        <v>233</v>
+      </c>
+      <c r="F16" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="E17" t="s">
+        <v>230</v>
+      </c>
+      <c r="F17" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="E18" t="s">
+        <v>230</v>
+      </c>
+      <c r="F18" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="F19" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C20" t="s">
+        <v>235</v>
+      </c>
+      <c r="F20" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="F21" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C22" t="s">
+        <v>236</v>
+      </c>
+      <c r="F22" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C23" t="s">
         <v>237</v>
       </c>
-      <c r="C4" t="s">
-        <v>224</v>
-      </c>
-      <c r="F4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="D5" t="s">
-        <v>234</v>
-      </c>
-      <c r="F5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="E23" t="s">
         <v>238</v>
       </c>
-      <c r="D6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="D7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>251</v>
-      </c>
-      <c r="E8" t="s">
-        <v>244</v>
-      </c>
-      <c r="F8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="F9" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>292</v>
-      </c>
-      <c r="E10" t="s">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C24" t="s">
         <v>239</v>
       </c>
-      <c r="F10" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="E11" t="s">
-        <v>240</v>
-      </c>
-      <c r="F11" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="E12" t="s">
-        <v>241</v>
-      </c>
-      <c r="F12" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="E13" t="s">
-        <v>240</v>
-      </c>
-      <c r="F13" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>295</v>
-      </c>
-      <c r="E14" t="s">
-        <v>242</v>
-      </c>
-      <c r="F14" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>296</v>
-      </c>
-      <c r="E15" t="s">
-        <v>240</v>
-      </c>
-      <c r="F15" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="E16" t="s">
-        <v>243</v>
-      </c>
-      <c r="F16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="E17" t="s">
-        <v>240</v>
-      </c>
-      <c r="F17" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="E18" t="s">
-        <v>240</v>
-      </c>
-      <c r="F18" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="F19" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="C20" t="s">
-        <v>245</v>
-      </c>
-      <c r="F20" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>255</v>
-      </c>
-      <c r="F21" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="C22" t="s">
-        <v>246</v>
-      </c>
-      <c r="F22" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="C23" t="s">
-        <v>247</v>
-      </c>
-      <c r="E23" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="F24" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C25" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="C25" t="s">
-        <v>260</v>
+      <c r="F25" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="C26" t="s">
+        <v>299</v>
+      </c>
+      <c r="F26" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="C27" t="s">
+        <v>300</v>
+      </c>
+      <c r="F27" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="C28" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/com.js.ens.leveller/ver3_변수정의.xlsx
+++ b/com.js.ens.leveller/ver3_변수정의.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\8____내문서\workspace\2016\com.js.ens.leveller\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\POSCO_Leveller\Report_mtg\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,14 +13,16 @@
   </bookViews>
   <sheets>
     <sheet name="변수선언" sheetId="1" r:id="rId1"/>
-    <sheet name="proc 생성" sheetId="2" r:id="rId2"/>
+    <sheet name="변수선언_2D" sheetId="3" r:id="rId2"/>
+    <sheet name="proc 생성" sheetId="2" r:id="rId3"/>
+    <sheet name="proc 생성_2D" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="357">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1170,12 +1172,196 @@
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2 ( Wave)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wave pitch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wave height</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wave phase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type2_textWavePitch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type2_textWaveHeight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type2_textWavePhase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%WavePitch%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%WaveHeight%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 (Curl)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Front Curl Height</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Front Curl Length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type3_textFrontCurlHeight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type3_textFrontCurlLength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type3_textRearCurlHeight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type3_textRearCurlLength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%FrontCurlHeight%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%FrontCurlLength%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%RearCurlHeight%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%RearCurlLength%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>녹색글씨 : 2D 변수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노란색 음영 : 사용 않는 변수- 2D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m1_xxxx_2d.proc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main_xxxx_2d.proc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a2_roll_gen_2d.proc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나중에 변경 예정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a4_contact_2d.proc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a6_loadcase_2d.proc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change_motion_to_load_2d.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ap03_change_roller_table_2d.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ap01_add_hdroll_2d.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ap02_add_roll_movement_2d.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>녹색글씨 : 2D Procedure &amp; Python</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI 생성 내용 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용 변경됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%WavePhase%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fdist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rdist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entry Roll Table Distance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exit Roll Table Distance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>textEntryRollTableDist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>textExitRollTableDist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%EntryRollTableDist%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%ExitRollTableDist%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1251,8 +1437,17 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1307,8 +1502,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1467,13 +1674,156 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1550,84 +1900,186 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1645,6 +2097,108 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>448236</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>347383</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2711824" y="6241676"/>
+          <a:ext cx="7541559" cy="963706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>기본적으로 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>File List </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>에서 정의 할 것이므로</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> 복사여부는 관련이 없을 것이지만</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>, UI </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>에서 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>File Handling </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>여부를  파악해여할 것이므로 정리함</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1934,10 +2488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I93"/>
+  <dimension ref="B2:I95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38:G38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75:G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1952,35 +2506,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="36"/>
-      <c r="C2" s="37"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="76"/>
       <c r="D2" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="G2" s="35"/>
+      <c r="G2" s="74"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="33"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61"/>
       <c r="I3" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="39"/>
-      <c r="C4" s="38" t="s">
+      <c r="B4" s="78"/>
+      <c r="C4" s="77" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -1989,701 +2543,701 @@
       <c r="E4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="63"/>
       <c r="I4" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
       <c r="D5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="G5" s="30"/>
+      <c r="G5" s="63"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
       <c r="D6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="30"/>
+      <c r="G6" s="63"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="39"/>
-      <c r="C7" s="40"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="79"/>
       <c r="D7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="G7" s="30"/>
+      <c r="G7" s="63"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="39"/>
-      <c r="C8" s="38" t="s">
+      <c r="B8" s="78"/>
+      <c r="C8" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
       <c r="D9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="G9" s="30"/>
+      <c r="G9" s="63"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
       <c r="D10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="G10" s="30"/>
+      <c r="G10" s="63"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
       <c r="D11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="G11" s="30"/>
+      <c r="G11" s="63"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
       <c r="D12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="62" t="s">
         <v>252</v>
       </c>
-      <c r="G12" s="30"/>
+      <c r="G12" s="63"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
       <c r="D13" s="4" t="s">
         <v>254</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="62" t="s">
         <v>259</v>
       </c>
-      <c r="G13" s="30"/>
+      <c r="G13" s="63"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
       <c r="D14" s="4" t="s">
         <v>255</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="62" t="s">
         <v>258</v>
       </c>
-      <c r="G14" s="30"/>
+      <c r="G14" s="63"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="39"/>
-      <c r="C15" s="40"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="79"/>
       <c r="D15" s="4"/>
       <c r="E15" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="F15" s="29" t="s">
+      <c r="F15" s="62" t="s">
         <v>257</v>
       </c>
-      <c r="G15" s="30"/>
+      <c r="G15" s="63"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="39"/>
-      <c r="C16" s="38" t="s">
+      <c r="B16" s="78"/>
+      <c r="C16" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="33"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="61"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
       <c r="D17" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="F17" s="29" t="s">
+      <c r="F17" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="G17" s="30"/>
+      <c r="G17" s="63"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="39"/>
-      <c r="C18" s="40"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="79"/>
       <c r="D18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="F18" s="29" t="s">
+      <c r="F18" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="G18" s="30"/>
+      <c r="G18" s="63"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="39"/>
-      <c r="C19" s="38" t="s">
+      <c r="B19" s="78"/>
+      <c r="C19" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="33"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="61"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="39"/>
-      <c r="C20" s="40"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="79"/>
       <c r="D20" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="F20" s="29" t="s">
+      <c r="F20" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="G20" s="30"/>
+      <c r="G20" s="63"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="39"/>
-      <c r="C21" s="38" t="s">
+      <c r="B21" s="78"/>
+      <c r="C21" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="33"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="61"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="78"/>
       <c r="D22" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="F22" s="29" t="s">
+      <c r="F22" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="G22" s="30"/>
+      <c r="G22" s="63"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="39"/>
-      <c r="C23" s="40"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="79"/>
       <c r="D23" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="F23" s="29" t="s">
+      <c r="F23" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="G23" s="30"/>
+      <c r="G23" s="63"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="39"/>
-      <c r="C24" s="38" t="s">
+      <c r="B24" s="78"/>
+      <c r="C24" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="33"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="61"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="78"/>
       <c r="D25" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="F25" s="29" t="s">
+      <c r="F25" s="62" t="s">
         <v>127</v>
       </c>
-      <c r="G25" s="30"/>
+      <c r="G25" s="63"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="78"/>
       <c r="D26" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F26" s="29" t="s">
+      <c r="F26" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="G26" s="30"/>
+      <c r="G26" s="63"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="78"/>
       <c r="D27" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F27" s="29" t="s">
+      <c r="F27" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="G27" s="30"/>
+      <c r="G27" s="63"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="39"/>
-      <c r="C28" s="40"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="79"/>
       <c r="D28" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F28" s="29" t="s">
+      <c r="F28" s="62" t="s">
         <v>130</v>
       </c>
-      <c r="G28" s="30"/>
+      <c r="G28" s="63"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="39"/>
-      <c r="C29" s="38" t="s">
+      <c r="B29" s="78"/>
+      <c r="C29" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="33"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="61"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="78"/>
       <c r="D30" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="F30" s="29" t="s">
+      <c r="F30" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="G30" s="30"/>
+      <c r="G30" s="63"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="78"/>
       <c r="D31" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F31" s="29" t="s">
+      <c r="F31" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="G31" s="30"/>
+      <c r="G31" s="63"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
+      <c r="B32" s="78"/>
+      <c r="C32" s="78"/>
       <c r="D32" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F32" s="29" t="s">
+      <c r="F32" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="G32" s="30"/>
+      <c r="G32" s="63"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="79"/>
       <c r="D33" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F33" s="29" t="s">
+      <c r="F33" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="G33" s="30"/>
+      <c r="G33" s="63"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B34" s="43" t="s">
+      <c r="B34" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="44"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="33"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="61"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="45"/>
-      <c r="C35" s="46"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="54"/>
       <c r="D35" s="4" t="s">
         <v>103</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F35" s="29" t="s">
+      <c r="F35" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="G35" s="30"/>
+      <c r="G35" s="63"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="45"/>
-      <c r="C36" s="46"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="54"/>
       <c r="D36" s="4" t="s">
         <v>110</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F36" s="29" t="s">
+      <c r="F36" s="62" t="s">
         <v>287</v>
       </c>
-      <c r="G36" s="30"/>
+      <c r="G36" s="63"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="45"/>
-      <c r="C37" s="46"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="54"/>
       <c r="D37" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F37" s="29" t="s">
+      <c r="F37" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="G37" s="30"/>
+      <c r="G37" s="63"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="47"/>
-      <c r="C38" s="48"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="56"/>
       <c r="D38" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F38" s="29" t="s">
+      <c r="F38" s="62" t="s">
         <v>310</v>
       </c>
-      <c r="G38" s="30"/>
+      <c r="G38" s="63"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B39" s="43" t="s">
+      <c r="B39" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="C39" s="44"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="33"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="61"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B40" s="45"/>
-      <c r="C40" s="46"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="54"/>
       <c r="D40" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="F40" s="29" t="s">
+      <c r="F40" s="62" t="s">
         <v>270</v>
       </c>
-      <c r="G40" s="30"/>
+      <c r="G40" s="63"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B41" s="45"/>
-      <c r="C41" s="46"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="54"/>
       <c r="D41" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F41" s="29" t="s">
+      <c r="F41" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="G41" s="30"/>
+      <c r="G41" s="63"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B42" s="45"/>
-      <c r="C42" s="46"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="54"/>
       <c r="D42" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F42" s="29" t="s">
+      <c r="F42" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="G42" s="30"/>
+      <c r="G42" s="63"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B43" s="45"/>
-      <c r="C43" s="46"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="54"/>
       <c r="D43" s="13" t="s">
         <v>133</v>
       </c>
       <c r="E43" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="F43" s="27" t="s">
+      <c r="F43" s="57" t="s">
         <v>134</v>
       </c>
-      <c r="G43" s="28"/>
+      <c r="G43" s="58"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B44" s="43" t="s">
+      <c r="B44" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="44"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="33"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="61"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B45" s="45"/>
-      <c r="C45" s="46"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="54"/>
       <c r="D45" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="F45" s="29" t="s">
+      <c r="F45" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="G45" s="30"/>
+      <c r="G45" s="63"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B46" s="45"/>
-      <c r="C46" s="46"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="54"/>
       <c r="D46" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="F46" s="29" t="s">
+      <c r="F46" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="G46" s="30"/>
+      <c r="G46" s="63"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B47" s="45"/>
-      <c r="C47" s="46"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="54"/>
       <c r="D47" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F47" s="29" t="s">
+      <c r="F47" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="G47" s="30"/>
+      <c r="G47" s="63"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B48" s="45"/>
-      <c r="C48" s="46"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="54"/>
       <c r="D48" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F48" s="29" t="s">
+      <c r="F48" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="G48" s="30"/>
+      <c r="G48" s="63"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B49" s="45"/>
-      <c r="C49" s="46"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="54"/>
       <c r="D49" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F49" s="29" t="s">
+      <c r="F49" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="G49" s="30"/>
+      <c r="G49" s="63"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B50" s="45"/>
-      <c r="C50" s="46"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="54"/>
       <c r="D50" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F50" s="29" t="s">
+      <c r="F50" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="G50" s="30"/>
+      <c r="G50" s="63"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B51" s="45"/>
-      <c r="C51" s="46"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="54"/>
       <c r="D51" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F51" s="29" t="s">
+      <c r="F51" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="G51" s="30"/>
+      <c r="G51" s="63"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B52" s="45"/>
-      <c r="C52" s="46"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="54"/>
       <c r="D52" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F52" s="29" t="s">
+      <c r="F52" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="G52" s="30"/>
+      <c r="G52" s="63"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B53" s="45"/>
-      <c r="C53" s="46"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="54"/>
       <c r="D53" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F53" s="29" t="s">
+      <c r="F53" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="G53" s="30"/>
+      <c r="G53" s="63"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B54" s="45"/>
-      <c r="C54" s="46"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="54"/>
       <c r="D54" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F54" s="29" t="s">
+      <c r="F54" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="G54" s="30"/>
+      <c r="G54" s="63"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B55" s="45"/>
-      <c r="C55" s="46"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="54"/>
       <c r="D55" s="9" t="s">
         <v>289</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="F55" s="50" t="s">
+      <c r="F55" s="25" t="s">
         <v>293</v>
       </c>
-      <c r="G55" s="51"/>
+      <c r="G55" s="26"/>
       <c r="H55" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B56" s="45"/>
-      <c r="C56" s="46"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="54"/>
       <c r="D56" s="9" t="s">
         <v>290</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="F56" s="50" t="s">
+      <c r="F56" s="25" t="s">
         <v>294</v>
       </c>
       <c r="G56" s="22"/>
@@ -2692,188 +3246,188 @@
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B57" s="45"/>
-      <c r="C57" s="46"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="54"/>
       <c r="D57" s="13" t="s">
         <v>136</v>
       </c>
       <c r="E57" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="F57" s="27" t="s">
+      <c r="F57" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="G57" s="28"/>
+      <c r="G57" s="58"/>
     </row>
     <row r="58" spans="2:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="45"/>
-      <c r="C58" s="46"/>
+      <c r="B58" s="53"/>
+      <c r="C58" s="54"/>
       <c r="D58" s="9" t="s">
         <v>214</v>
       </c>
       <c r="E58" s="10"/>
-      <c r="F58" s="25" t="s">
+      <c r="F58" s="82" t="s">
         <v>297</v>
       </c>
-      <c r="G58" s="26"/>
+      <c r="G58" s="83"/>
       <c r="H58" s="18" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="59" spans="2:8" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="45"/>
-      <c r="C59" s="46"/>
+      <c r="B59" s="53"/>
+      <c r="C59" s="54"/>
       <c r="D59" s="9" t="s">
         <v>215</v>
       </c>
       <c r="E59" s="10"/>
-      <c r="F59" s="25" t="s">
+      <c r="F59" s="82" t="s">
         <v>298</v>
       </c>
-      <c r="G59" s="26"/>
+      <c r="G59" s="83"/>
       <c r="H59" s="18" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="45"/>
-      <c r="C60" s="46"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="54"/>
       <c r="D60" s="9" t="s">
         <v>160</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="F60" s="23" t="s">
+      <c r="F60" s="80" t="s">
         <v>223</v>
       </c>
-      <c r="G60" s="24"/>
+      <c r="G60" s="81"/>
       <c r="H60" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B61" s="45"/>
-      <c r="C61" s="46"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="54"/>
       <c r="D61" s="9" t="s">
         <v>161</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="F61" s="23" t="s">
+      <c r="F61" s="80" t="s">
         <v>202</v>
       </c>
-      <c r="G61" s="24"/>
+      <c r="G61" s="81"/>
       <c r="H61" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="45"/>
-      <c r="C62" s="46"/>
+      <c r="B62" s="53"/>
+      <c r="C62" s="54"/>
       <c r="D62" s="9" t="s">
         <v>162</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="F62" s="23" t="s">
+      <c r="F62" s="80" t="s">
         <v>203</v>
       </c>
-      <c r="G62" s="24"/>
+      <c r="G62" s="81"/>
       <c r="H62" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B63" s="45"/>
-      <c r="C63" s="46"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="54"/>
       <c r="D63" s="9" t="s">
         <v>163</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="F63" s="23" t="s">
+      <c r="F63" s="80" t="s">
         <v>204</v>
       </c>
-      <c r="G63" s="24"/>
+      <c r="G63" s="81"/>
       <c r="H63" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B64" s="45"/>
-      <c r="C64" s="46"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="54"/>
       <c r="D64" s="9" t="s">
         <v>164</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="F64" s="23" t="s">
+      <c r="F64" s="80" t="s">
         <v>205</v>
       </c>
-      <c r="G64" s="24"/>
+      <c r="G64" s="81"/>
       <c r="H64" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B65" s="45"/>
-      <c r="C65" s="46"/>
+      <c r="B65" s="53"/>
+      <c r="C65" s="54"/>
       <c r="D65" s="9" t="s">
         <v>165</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="F65" s="23" t="s">
+      <c r="F65" s="80" t="s">
         <v>206</v>
       </c>
-      <c r="G65" s="24"/>
+      <c r="G65" s="81"/>
       <c r="H65" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B66" s="45"/>
-      <c r="C66" s="46"/>
+      <c r="B66" s="53"/>
+      <c r="C66" s="54"/>
       <c r="D66" s="9" t="s">
         <v>166</v>
       </c>
       <c r="E66" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="F66" s="23" t="s">
+      <c r="F66" s="80" t="s">
         <v>207</v>
       </c>
-      <c r="G66" s="24"/>
+      <c r="G66" s="81"/>
       <c r="H66" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B67" s="45"/>
-      <c r="C67" s="46"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="54"/>
       <c r="D67" s="9" t="s">
         <v>167</v>
       </c>
       <c r="E67" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="F67" s="23" t="s">
+      <c r="F67" s="80" t="s">
         <v>208</v>
       </c>
-      <c r="G67" s="24"/>
+      <c r="G67" s="81"/>
       <c r="H67" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B68" s="45"/>
-      <c r="C68" s="46"/>
+      <c r="B68" s="53"/>
+      <c r="C68" s="54"/>
       <c r="D68" s="9" t="s">
         <v>224</v>
       </c>
@@ -2886,429 +3440,439 @@
       <c r="G68" s="17"/>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B69" s="45"/>
-      <c r="C69" s="46"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="54"/>
       <c r="D69" s="9" t="s">
         <v>168</v>
       </c>
       <c r="E69" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="F69" s="23" t="s">
+      <c r="F69" s="80" t="s">
         <v>209</v>
       </c>
-      <c r="G69" s="24"/>
+      <c r="G69" s="81"/>
       <c r="H69" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B70" s="45"/>
-      <c r="C70" s="46"/>
+      <c r="B70" s="53"/>
+      <c r="C70" s="54"/>
       <c r="D70" s="9" t="s">
         <v>169</v>
       </c>
       <c r="E70" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="F70" s="23" t="s">
+      <c r="F70" s="80" t="s">
         <v>210</v>
       </c>
-      <c r="G70" s="24"/>
+      <c r="G70" s="81"/>
       <c r="H70" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B71" s="45"/>
-      <c r="C71" s="46"/>
+      <c r="B71" s="53"/>
+      <c r="C71" s="54"/>
       <c r="D71" s="9" t="s">
         <v>170</v>
       </c>
       <c r="E71" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="F71" s="23" t="s">
+      <c r="F71" s="80" t="s">
         <v>226</v>
       </c>
-      <c r="G71" s="24"/>
+      <c r="G71" s="81"/>
       <c r="H71" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B72" s="45"/>
-      <c r="C72" s="46"/>
+      <c r="B72" s="53"/>
+      <c r="C72" s="54"/>
       <c r="D72" s="9" t="s">
         <v>171</v>
       </c>
       <c r="E72" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="F72" s="23" t="s">
+      <c r="F72" s="80" t="s">
         <v>211</v>
       </c>
-      <c r="G72" s="24"/>
+      <c r="G72" s="81"/>
       <c r="H72" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B73" s="45"/>
-      <c r="C73" s="46"/>
+      <c r="B73" s="53"/>
+      <c r="C73" s="54"/>
       <c r="D73" s="9" t="s">
         <v>172</v>
       </c>
       <c r="E73" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="F73" s="23" t="s">
+      <c r="F73" s="80" t="s">
         <v>212</v>
       </c>
-      <c r="G73" s="24"/>
+      <c r="G73" s="81"/>
       <c r="H73" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B74" s="47"/>
-      <c r="C74" s="48"/>
-      <c r="D74" s="9" t="s">
+    <row r="74" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="53"/>
+      <c r="C74" s="54"/>
+      <c r="D74" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="E74" s="10" t="s">
+      <c r="E74" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="F74" s="23" t="s">
+      <c r="F74" s="47" t="s">
         <v>213</v>
       </c>
-      <c r="G74" s="24"/>
+      <c r="G74" s="48"/>
       <c r="H74" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B75" s="43" t="s">
+      <c r="B75" s="53"/>
+      <c r="C75" s="71"/>
+      <c r="D75" s="41" t="s">
+        <v>351</v>
+      </c>
+      <c r="E75" s="42" t="s">
+        <v>353</v>
+      </c>
+      <c r="F75" s="49" t="s">
+        <v>355</v>
+      </c>
+      <c r="G75" s="50"/>
+      <c r="H75" s="43" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="55"/>
+      <c r="C76" s="72"/>
+      <c r="D76" s="44" t="s">
+        <v>352</v>
+      </c>
+      <c r="E76" s="45" t="s">
+        <v>354</v>
+      </c>
+      <c r="F76" s="66" t="s">
+        <v>356</v>
+      </c>
+      <c r="G76" s="67"/>
+      <c r="H76" s="46" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B77" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="C75" s="44"/>
-      <c r="D75" s="31"/>
-      <c r="E75" s="33"/>
-      <c r="F75" s="1" t="s">
+      <c r="C77" s="52"/>
+      <c r="D77" s="68"/>
+      <c r="E77" s="69"/>
+      <c r="F77" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="G77" s="40" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B76" s="45"/>
-      <c r="C76" s="46"/>
-      <c r="D76" s="4" t="s">
+    <row r="78" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="B78" s="53"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="E78" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="F76" s="7" t="s">
+      <c r="F78" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G76" s="6" t="s">
+      <c r="G78" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="77" spans="2:8" ht="132" x14ac:dyDescent="0.3">
-      <c r="B77" s="45"/>
-      <c r="C77" s="46"/>
-      <c r="D77" s="4" t="s">
+    <row r="79" spans="2:8" ht="132" x14ac:dyDescent="0.3">
+      <c r="B79" s="53"/>
+      <c r="C79" s="54"/>
+      <c r="D79" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E77" s="5" t="s">
+      <c r="E79" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F77" s="8" t="s">
+      <c r="F79" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="G77" s="11" t="s">
+      <c r="G79" s="11" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B78" s="45"/>
-      <c r="C78" s="46"/>
-      <c r="D78" s="13" t="s">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B80" s="53"/>
+      <c r="C80" s="54"/>
+      <c r="D80" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="E78" s="14" t="s">
+      <c r="E80" s="14" t="s">
         <v>141</v>
-      </c>
-      <c r="F78" s="12"/>
-      <c r="G78" s="15" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B79" s="45"/>
-      <c r="C79" s="46"/>
-      <c r="D79" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="E79" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="F79" s="12"/>
-      <c r="G79" s="15" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B80" s="45"/>
-      <c r="C80" s="46"/>
-      <c r="D80" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="E80" s="14" t="s">
-        <v>278</v>
       </c>
       <c r="F80" s="12"/>
       <c r="G80" s="15" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B81" s="53"/>
+      <c r="C81" s="54"/>
+      <c r="D81" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E81" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F81" s="12"/>
+      <c r="G81" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B82" s="53"/>
+      <c r="C82" s="54"/>
+      <c r="D82" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E82" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="F82" s="12"/>
+      <c r="G82" s="15" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="81" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B81" s="45"/>
-      <c r="C81" s="46"/>
-      <c r="D81" s="4" t="s">
+    <row r="83" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B83" s="53"/>
+      <c r="C83" s="54"/>
+      <c r="D83" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E81" s="5" t="s">
+      <c r="E83" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="F81" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G81" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B82" s="45"/>
-      <c r="C82" s="46"/>
-      <c r="D82" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F82" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G82" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B83" s="47"/>
-      <c r="C83" s="48"/>
-      <c r="D83" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="F83" s="7" t="s">
         <v>97</v>
       </c>
       <c r="G83" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B84" s="53"/>
+      <c r="C84" s="54"/>
+      <c r="D84" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B85" s="55"/>
+      <c r="C85" s="56"/>
+      <c r="D85" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G85" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B84" s="43" t="s">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B86" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="C84" s="44"/>
-      <c r="D84" s="31"/>
-      <c r="E84" s="32"/>
-      <c r="F84" s="32"/>
-      <c r="G84" s="33"/>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B85" s="45"/>
-      <c r="C85" s="46"/>
-      <c r="D85" s="4" t="s">
+      <c r="C86" s="52"/>
+      <c r="D86" s="59"/>
+      <c r="E86" s="60"/>
+      <c r="F86" s="60"/>
+      <c r="G86" s="61"/>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B87" s="53"/>
+      <c r="C87" s="54"/>
+      <c r="D87" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E85" s="5" t="s">
+      <c r="E87" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F85" s="29" t="s">
+      <c r="F87" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="G85" s="30"/>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B86" s="45"/>
-      <c r="C86" s="46"/>
-      <c r="D86" s="4" t="s">
+      <c r="G87" s="63"/>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B88" s="53"/>
+      <c r="C88" s="54"/>
+      <c r="D88" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E86" s="5" t="s">
+      <c r="E88" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F86" s="29" t="s">
+      <c r="F88" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="G86" s="30"/>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B87" s="45"/>
-      <c r="C87" s="46"/>
-      <c r="D87" s="4" t="s">
+      <c r="G88" s="63"/>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B89" s="53"/>
+      <c r="C89" s="54"/>
+      <c r="D89" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E87" s="5" t="s">
+      <c r="E89" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F87" s="41" t="s">
+      <c r="F89" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="G87" s="42"/>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B88" s="45"/>
-      <c r="C88" s="46"/>
-      <c r="D88" s="4" t="s">
+      <c r="G89" s="65"/>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B90" s="53"/>
+      <c r="C90" s="54"/>
+      <c r="D90" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E88" s="5" t="s">
+      <c r="E90" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F88" s="29" t="s">
+      <c r="F90" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="G88" s="30"/>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B89" s="45"/>
-      <c r="C89" s="46"/>
-      <c r="D89" s="4" t="s">
+      <c r="G90" s="63"/>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B91" s="53"/>
+      <c r="C91" s="54"/>
+      <c r="D91" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E89" s="5" t="s">
+      <c r="E91" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F89" s="41" t="s">
+      <c r="F91" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="G89" s="42"/>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B90" s="47"/>
-      <c r="C90" s="48"/>
-      <c r="D90" s="4" t="s">
+      <c r="G91" s="65"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B92" s="55"/>
+      <c r="C92" s="56"/>
+      <c r="D92" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E90" s="5" t="s">
+      <c r="E92" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F90" s="29" t="s">
+      <c r="F92" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="G90" s="30"/>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B91" s="49" t="s">
+      <c r="G92" s="63"/>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B93" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="C91" s="44"/>
-      <c r="D91" s="31"/>
-      <c r="E91" s="32"/>
-      <c r="F91" s="32"/>
-      <c r="G91" s="33"/>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B92" s="45"/>
-      <c r="C92" s="46"/>
-      <c r="D92" s="13" t="s">
+      <c r="C93" s="52"/>
+      <c r="D93" s="59"/>
+      <c r="E93" s="60"/>
+      <c r="F93" s="60"/>
+      <c r="G93" s="61"/>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B94" s="53"/>
+      <c r="C94" s="54"/>
+      <c r="D94" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="E92" s="14" t="s">
+      <c r="E94" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="F92" s="27" t="s">
+      <c r="F94" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="G92" s="28"/>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B93" s="47"/>
-      <c r="C93" s="48"/>
-      <c r="D93" s="13" t="s">
+      <c r="G94" s="58"/>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B95" s="55"/>
+      <c r="C95" s="56"/>
+      <c r="D95" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="E93" s="14" t="s">
+      <c r="E95" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="F93" s="27" t="s">
+      <c r="F95" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="G93" s="28"/>
+      <c r="G95" s="58"/>
     </row>
   </sheetData>
-  <mergeCells count="96">
-    <mergeCell ref="B91:C93"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="D91:G91"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D84:G84"/>
-    <mergeCell ref="B34:C38"/>
-    <mergeCell ref="B39:C43"/>
-    <mergeCell ref="B44:C74"/>
-    <mergeCell ref="B75:C83"/>
-    <mergeCell ref="B84:C90"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F54:G54"/>
+  <mergeCells count="98">
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F13:G13"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="C3:G3"/>
@@ -3325,34 +3889,60 @@
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F10:G10"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="B34:C38"/>
+    <mergeCell ref="B39:C43"/>
+    <mergeCell ref="B44:C76"/>
+    <mergeCell ref="B77:C85"/>
+    <mergeCell ref="B86:C92"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="D86:G86"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="B93:C95"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="D93:G93"/>
+    <mergeCell ref="D77:E77"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3362,10 +3952,1248 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I79"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59:G60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5" customWidth="1"/>
+    <col min="7" max="7" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="75"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="74"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="59"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61"/>
+      <c r="I3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="78"/>
+      <c r="C4" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="62"/>
+      <c r="G4" s="63"/>
+      <c r="I4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="63"/>
+      <c r="I5" s="29" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="63"/>
+      <c r="I6" s="34" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="78"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="63"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="78"/>
+      <c r="C8" s="77" t="s">
+        <v>311</v>
+      </c>
+      <c r="D8" s="59"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>315</v>
+      </c>
+      <c r="F9" s="84" t="s">
+        <v>318</v>
+      </c>
+      <c r="G9" s="85"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="F10" s="84" t="s">
+        <v>319</v>
+      </c>
+      <c r="G10" s="85"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="F11" s="84" t="s">
+        <v>348</v>
+      </c>
+      <c r="G11" s="85"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="78"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="63"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="78"/>
+      <c r="C13" s="77" t="s">
+        <v>320</v>
+      </c>
+      <c r="D13" s="59"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="61"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="F14" s="84" t="s">
+        <v>327</v>
+      </c>
+      <c r="G14" s="85"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="27" t="s">
+        <v>322</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="F15" s="84" t="s">
+        <v>328</v>
+      </c>
+      <c r="G15" s="85"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="F16" s="84" t="s">
+        <v>329</v>
+      </c>
+      <c r="G16" s="85"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="27" t="s">
+        <v>322</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="F17" s="84" t="s">
+        <v>330</v>
+      </c>
+      <c r="G17" s="85"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="52"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="61"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="53"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="62" t="s">
+        <v>286</v>
+      </c>
+      <c r="G19" s="63"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="62" t="s">
+        <v>287</v>
+      </c>
+      <c r="G20" s="63"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="53"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="62" t="s">
+        <v>288</v>
+      </c>
+      <c r="G21" s="63"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="55"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="62" t="s">
+        <v>310</v>
+      </c>
+      <c r="G22" s="63"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="52"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="61"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="53"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="F24" s="62" t="s">
+        <v>270</v>
+      </c>
+      <c r="G24" s="63"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="53"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25" s="63"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="53"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" s="63"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="53"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F27" s="57" t="s">
+        <v>134</v>
+      </c>
+      <c r="G27" s="58"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="52"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="61"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="53"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="F29" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29" s="63"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="53"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="F30" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="G30" s="63"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="53"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="G31" s="63"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="53"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="G32" s="63"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="53"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" s="62" t="s">
+        <v>112</v>
+      </c>
+      <c r="G33" s="63"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34" s="53"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="G34" s="63"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35" s="53"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="G35" s="63"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="53"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F36" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="G36" s="63"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B37" s="53"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F37" s="62" t="s">
+        <v>116</v>
+      </c>
+      <c r="G37" s="63"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B38" s="53"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F38" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="G38" s="63"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B39" s="53"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="30" t="s">
+        <v>289</v>
+      </c>
+      <c r="E39" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="F39" s="31" t="s">
+        <v>293</v>
+      </c>
+      <c r="G39" s="32"/>
+      <c r="H39" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B40" s="53"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="F40" s="31" t="s">
+        <v>294</v>
+      </c>
+      <c r="G40" s="33"/>
+      <c r="H40" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B41" s="53"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="F41" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="G41" s="58"/>
+    </row>
+    <row r="42" spans="2:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="53"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="82" t="s">
+        <v>297</v>
+      </c>
+      <c r="G42" s="83"/>
+      <c r="H42" s="18" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="53"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="E43" s="10"/>
+      <c r="F43" s="82" t="s">
+        <v>298</v>
+      </c>
+      <c r="G43" s="83"/>
+      <c r="H43" s="18" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B44" s="53"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="F44" s="80" t="s">
+        <v>223</v>
+      </c>
+      <c r="G44" s="81"/>
+      <c r="H44" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B45" s="53"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="F45" s="80" t="s">
+        <v>202</v>
+      </c>
+      <c r="G45" s="81"/>
+      <c r="H45" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B46" s="53"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="F46" s="80" t="s">
+        <v>203</v>
+      </c>
+      <c r="G46" s="81"/>
+      <c r="H46" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B47" s="53"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F47" s="80" t="s">
+        <v>204</v>
+      </c>
+      <c r="G47" s="81"/>
+      <c r="H47" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B48" s="53"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F48" s="80" t="s">
+        <v>205</v>
+      </c>
+      <c r="G48" s="81"/>
+      <c r="H48" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B49" s="53"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F49" s="80" t="s">
+        <v>206</v>
+      </c>
+      <c r="G49" s="81"/>
+      <c r="H49" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B50" s="53"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="F50" s="80" t="s">
+        <v>207</v>
+      </c>
+      <c r="G50" s="81"/>
+      <c r="H50" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B51" s="53"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="F51" s="80" t="s">
+        <v>208</v>
+      </c>
+      <c r="G51" s="81"/>
+      <c r="H51" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B52" s="53"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="F52" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="G52" s="24"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B53" s="53"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F53" s="80" t="s">
+        <v>209</v>
+      </c>
+      <c r="G53" s="81"/>
+      <c r="H53" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B54" s="53"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="F54" s="80" t="s">
+        <v>210</v>
+      </c>
+      <c r="G54" s="81"/>
+      <c r="H54" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B55" s="53"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F55" s="80" t="s">
+        <v>226</v>
+      </c>
+      <c r="G55" s="81"/>
+      <c r="H55" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B56" s="53"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F56" s="80" t="s">
+        <v>211</v>
+      </c>
+      <c r="G56" s="81"/>
+      <c r="H56" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B57" s="53"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="F57" s="80" t="s">
+        <v>212</v>
+      </c>
+      <c r="G57" s="81"/>
+      <c r="H57" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="53"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="F58" s="80" t="s">
+        <v>213</v>
+      </c>
+      <c r="G58" s="81"/>
+      <c r="H58" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B59" s="53"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="41" t="s">
+        <v>351</v>
+      </c>
+      <c r="E59" s="42" t="s">
+        <v>353</v>
+      </c>
+      <c r="F59" s="49" t="s">
+        <v>355</v>
+      </c>
+      <c r="G59" s="50"/>
+      <c r="H59" s="43" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="55"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="44" t="s">
+        <v>352</v>
+      </c>
+      <c r="E60" s="45" t="s">
+        <v>354</v>
+      </c>
+      <c r="F60" s="66" t="s">
+        <v>356</v>
+      </c>
+      <c r="G60" s="67"/>
+      <c r="H60" s="46" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B61" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="C61" s="52"/>
+      <c r="D61" s="59"/>
+      <c r="E61" s="61"/>
+      <c r="F61" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="B62" s="53"/>
+      <c r="C62" s="54"/>
+      <c r="D62" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" ht="132" x14ac:dyDescent="0.3">
+      <c r="B63" s="53"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B64" s="53"/>
+      <c r="C64" s="54"/>
+      <c r="D64" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="F64" s="12"/>
+      <c r="G64" s="15" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B65" s="53"/>
+      <c r="C65" s="54"/>
+      <c r="D65" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F65" s="12"/>
+      <c r="G65" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B66" s="53"/>
+      <c r="C66" s="54"/>
+      <c r="D66" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E66" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="F66" s="12"/>
+      <c r="G66" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B67" s="53"/>
+      <c r="C67" s="54"/>
+      <c r="D67" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B68" s="53"/>
+      <c r="C68" s="54"/>
+      <c r="D68" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B69" s="55"/>
+      <c r="C69" s="56"/>
+      <c r="D69" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B70" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="C70" s="52"/>
+      <c r="D70" s="59"/>
+      <c r="E70" s="60"/>
+      <c r="F70" s="60"/>
+      <c r="G70" s="61"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B71" s="53"/>
+      <c r="C71" s="54"/>
+      <c r="D71" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F71" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="G71" s="63"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B72" s="53"/>
+      <c r="C72" s="54"/>
+      <c r="D72" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F72" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="G72" s="63"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B73" s="53"/>
+      <c r="C73" s="54"/>
+      <c r="D73" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F73" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="G73" s="65"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B74" s="53"/>
+      <c r="C74" s="54"/>
+      <c r="D74" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F74" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="G74" s="63"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B75" s="53"/>
+      <c r="C75" s="54"/>
+      <c r="D75" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F75" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="G75" s="65"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B76" s="55"/>
+      <c r="C76" s="56"/>
+      <c r="D76" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F76" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="G76" s="63"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B77" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" s="52"/>
+      <c r="D77" s="59"/>
+      <c r="E77" s="60"/>
+      <c r="F77" s="60"/>
+      <c r="G77" s="61"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B78" s="53"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="E78" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="F78" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="G78" s="58"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B79" s="55"/>
+      <c r="C79" s="56"/>
+      <c r="D79" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="F79" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="G79" s="58"/>
+    </row>
+  </sheetData>
+  <mergeCells count="78">
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="B61:C69"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="B70:C76"/>
+    <mergeCell ref="D70:G70"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="B77:C79"/>
+    <mergeCell ref="D77:G77"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B28:C60"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B23:C27"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B18:C22"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B3:B17"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="C13:C17"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3710,4 +5538,389 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I28"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="14.875" style="19" customWidth="1"/>
+    <col min="3" max="3" width="26.25" customWidth="1"/>
+    <col min="4" max="4" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H1" t="s">
+        <v>346</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="F2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="F3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="F4" t="s">
+        <v>308</v>
+      </c>
+      <c r="G4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" t="s">
+        <v>305</v>
+      </c>
+      <c r="F5" t="s">
+        <v>308</v>
+      </c>
+      <c r="G5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="D6" t="s">
+        <v>306</v>
+      </c>
+      <c r="G6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="D7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="E8" t="s">
+        <v>234</v>
+      </c>
+      <c r="F8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="F9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="E10" t="s">
+        <v>229</v>
+      </c>
+      <c r="F10" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="E11" t="s">
+        <v>230</v>
+      </c>
+      <c r="F11" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="E12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F12" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="E13" t="s">
+        <v>230</v>
+      </c>
+      <c r="F13" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="E14" t="s">
+        <v>232</v>
+      </c>
+      <c r="F14" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="E15" t="s">
+        <v>230</v>
+      </c>
+      <c r="F15" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="E16" t="s">
+        <v>233</v>
+      </c>
+      <c r="F16" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="E17" t="s">
+        <v>230</v>
+      </c>
+      <c r="F17" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="E18" t="s">
+        <v>230</v>
+      </c>
+      <c r="F18" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="C20" t="s">
+        <v>235</v>
+      </c>
+      <c r="F20" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="F21" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="C22" t="s">
+        <v>236</v>
+      </c>
+      <c r="F22" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="E23" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="F24" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="F25" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="F26" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="B27" s="35"/>
+      <c r="C27" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="G27" s="34" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="C28" t="s">
+        <v>302</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>